--- a/input/decision-logic/CCC DAK_decision-support logic.xlsx
+++ b/input/decision-logic/CCC DAK_decision-support logic.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rawlanir\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldhealthorg.sharepoint.com/sites/EmCare-External/Shared Documents/Em Care External/WS2 - Digital Adaptation Kit/1_global/copy edited/v1.8/ccc web annexes v1.8/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA6F428-5D37-4968-9AB1-8A2CFDEA67ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{E70B044C-6D02-4AA6-84F3-9686216ADBFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57904410-9CC0-437C-80BB-C9271A0EC42D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="918" xr2:uid="{ADD7B10F-2EE6-4D6C-9224-7CD202611AB7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="918" xr2:uid="{ADD7B10F-2EE6-4D6C-9224-7CD202611AB7}"/>
   </bookViews>
   <sheets>
     <sheet name="COVER" sheetId="27" r:id="rId1"/>
@@ -31244,7 +31244,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">DRAFT
+    <t xml:space="preserve">https://smart.who.int/dak-ccc/v1.0.0/CCC DAK_decision-support logic.xlsx
 © World Health Organization 2024. Some rights reserved. This work is available under the
 </t>
   </si>
@@ -33749,15 +33749,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -33777,6 +33768,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -34157,18 +34157,18 @@
   </sheetPr>
   <dimension ref="B1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:D15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" style="268" customWidth="1"/>
-    <col min="2" max="2" width="36.44140625" style="268" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="268" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" style="268" customWidth="1"/>
     <col min="3" max="3" width="16" style="268" customWidth="1"/>
-    <col min="4" max="4" width="32.109375" style="268" customWidth="1"/>
-    <col min="5" max="5" width="57.5546875" style="268" customWidth="1"/>
-    <col min="6" max="16384" width="10.33203125" style="268"/>
+    <col min="4" max="4" width="32.140625" style="268" customWidth="1"/>
+    <col min="5" max="5" width="57.5703125" style="268" customWidth="1"/>
+    <col min="6" max="16384" width="10.28515625" style="268"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
@@ -34286,10 +34286,10 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="5" width="45.6640625" customWidth="1"/>
+    <col min="1" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="5" width="45.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -34297,7 +34297,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1"/>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="3" spans="1:5" ht="31.5" customHeight="1">
       <c r="A3" s="108" t="s">
         <v>0</v>
@@ -34346,7 +34346,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="100.8">
+    <row r="7" spans="1:5" ht="120">
       <c r="A7" s="114" t="s">
         <v>10</v>
       </c>
@@ -34363,7 +34363,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="57.6">
+    <row r="8" spans="1:5" ht="75">
       <c r="A8" s="118" t="s">
         <v>15</v>
       </c>
@@ -34394,27 +34394,27 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18" style="7" customWidth="1"/>
     <col min="2" max="3" width="40" style="7" customWidth="1"/>
     <col min="4" max="4" width="33" style="5" customWidth="1"/>
-    <col min="5" max="5" width="32.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="33" style="7" customWidth="1"/>
-    <col min="9" max="9" width="33.6640625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="45.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.109375" style="7" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="7"/>
+    <col min="9" max="9" width="33.7109375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="45.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.140625" style="7" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13.8">
+    <row r="1" spans="1:12">
       <c r="A1" s="173" t="s">
         <v>1673</v>
       </c>
       <c r="D1" s="174"/>
     </row>
-    <row r="3" spans="1:12" ht="13.8">
+    <row r="3" spans="1:12">
       <c r="A3" s="175"/>
       <c r="B3" s="92" t="s">
         <v>0</v>
@@ -34431,7 +34431,7 @@
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
     </row>
-    <row r="4" spans="1:12" ht="13.8">
+    <row r="4" spans="1:12">
       <c r="A4" s="175"/>
       <c r="B4" s="92" t="s">
         <v>2</v>
@@ -34448,7 +34448,7 @@
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
     </row>
-    <row r="5" spans="1:12" ht="13.8">
+    <row r="5" spans="1:12">
       <c r="A5" s="175"/>
       <c r="B5" s="92" t="s">
         <v>4</v>
@@ -34465,7 +34465,7 @@
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
     </row>
-    <row r="6" spans="1:12" ht="13.8">
+    <row r="6" spans="1:12">
       <c r="A6" s="176" t="s">
         <v>19</v>
       </c>
@@ -34503,7 +34503,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="13.8">
+    <row r="7" spans="1:12">
       <c r="A7" s="8"/>
       <c r="B7" s="164" t="s">
         <v>23</v>
@@ -34575,7 +34575,7 @@
       </c>
       <c r="L9" s="421"/>
     </row>
-    <row r="10" spans="1:12" ht="27.6">
+    <row r="10" spans="1:12" ht="25.5">
       <c r="A10" s="4" t="s">
         <v>37</v>
       </c>
@@ -34597,7 +34597,7 @@
       <c r="K10" s="285"/>
       <c r="L10" s="421"/>
     </row>
-    <row r="11" spans="1:12" ht="27.6">
+    <row r="11" spans="1:12" ht="25.5">
       <c r="A11" s="4" t="s">
         <v>41</v>
       </c>
@@ -34615,7 +34615,7 @@
       <c r="K11" s="285"/>
       <c r="L11" s="421"/>
     </row>
-    <row r="12" spans="1:12" ht="13.8">
+    <row r="12" spans="1:12">
       <c r="A12" s="4" t="s">
         <v>43</v>
       </c>
@@ -34746,7 +34746,7 @@
       <c r="K18" s="286"/>
       <c r="L18" s="421"/>
     </row>
-    <row r="19" spans="1:12" ht="21.9" customHeight="1">
+    <row r="19" spans="1:12" ht="21.95" customHeight="1">
       <c r="A19" s="102"/>
       <c r="B19" s="102" t="s">
         <v>59</v>
@@ -35548,7 +35548,7 @@
       <c r="L54" s="421"/>
       <c r="M54" s="193"/>
     </row>
-    <row r="55" spans="1:13" ht="69">
+    <row r="55" spans="1:13" ht="63.75">
       <c r="A55" s="4" t="s">
         <v>143</v>
       </c>
@@ -35646,7 +35646,7 @@
       </c>
       <c r="L58" s="421"/>
     </row>
-    <row r="59" spans="1:13" ht="13.8">
+    <row r="59" spans="1:13">
       <c r="A59" s="4" t="s">
         <v>153</v>
       </c>
@@ -35664,7 +35664,7 @@
       <c r="K59" s="287"/>
       <c r="L59" s="421"/>
     </row>
-    <row r="60" spans="1:13" ht="27.6">
+    <row r="60" spans="1:13" ht="25.5">
       <c r="A60" s="4" t="s">
         <v>155</v>
       </c>
@@ -35682,7 +35682,7 @@
       <c r="K60" s="287"/>
       <c r="L60" s="421"/>
     </row>
-    <row r="61" spans="1:13" ht="13.8">
+    <row r="61" spans="1:13">
       <c r="A61" s="83"/>
       <c r="B61" s="83" t="s">
         <v>156</v>
@@ -36120,7 +36120,7 @@
       <c r="K82" s="287"/>
       <c r="L82" s="421"/>
     </row>
-    <row r="83" spans="1:12" ht="55.2">
+    <row r="83" spans="1:12" ht="51">
       <c r="A83" s="4" t="s">
         <v>197</v>
       </c>
@@ -36142,7 +36142,7 @@
       <c r="K83" s="287"/>
       <c r="L83" s="421"/>
     </row>
-    <row r="84" spans="1:12" ht="27.6">
+    <row r="84" spans="1:12" ht="38.25">
       <c r="A84" s="4" t="s">
         <v>200</v>
       </c>
@@ -36162,7 +36162,7 @@
       <c r="K84" s="287"/>
       <c r="L84" s="421"/>
     </row>
-    <row r="85" spans="1:12" ht="27.6">
+    <row r="85" spans="1:12" ht="38.25">
       <c r="A85" s="4" t="s">
         <v>201</v>
       </c>
@@ -36184,7 +36184,7 @@
       <c r="K85" s="287"/>
       <c r="L85" s="421"/>
     </row>
-    <row r="86" spans="1:12" ht="41.4">
+    <row r="86" spans="1:12" ht="38.25">
       <c r="A86" s="4" t="s">
         <v>203</v>
       </c>
@@ -36206,7 +36206,7 @@
       <c r="K86" s="287"/>
       <c r="L86" s="421"/>
     </row>
-    <row r="87" spans="1:12" ht="27.6">
+    <row r="87" spans="1:12" ht="38.25">
       <c r="A87" s="4" t="s">
         <v>206</v>
       </c>
@@ -36226,7 +36226,7 @@
       <c r="K87" s="287"/>
       <c r="L87" s="421"/>
     </row>
-    <row r="88" spans="1:12" ht="69">
+    <row r="88" spans="1:12" ht="63.75">
       <c r="A88" s="4" t="s">
         <v>208</v>
       </c>
@@ -36280,7 +36280,7 @@
       </c>
       <c r="L89" s="421"/>
     </row>
-    <row r="90" spans="1:12" ht="13.8">
+    <row r="90" spans="1:12">
       <c r="A90" s="4" t="s">
         <v>215</v>
       </c>
@@ -36298,7 +36298,7 @@
       <c r="K90" s="287"/>
       <c r="L90" s="421"/>
     </row>
-    <row r="91" spans="1:12" ht="69">
+    <row r="91" spans="1:12" ht="63.75">
       <c r="A91" s="4" t="s">
         <v>217</v>
       </c>
@@ -36326,7 +36326,7 @@
       </c>
       <c r="L91" s="421"/>
     </row>
-    <row r="92" spans="1:12" ht="69">
+    <row r="92" spans="1:12" ht="63.75">
       <c r="A92" s="4" t="s">
         <v>220</v>
       </c>
@@ -36352,7 +36352,7 @@
       </c>
       <c r="L92" s="421"/>
     </row>
-    <row r="93" spans="1:12" ht="13.8">
+    <row r="93" spans="1:12">
       <c r="A93" s="10"/>
       <c r="B93" s="10" t="s">
         <v>223</v>
@@ -36538,7 +36538,7 @@
       <c r="K100" s="285"/>
       <c r="L100" s="421"/>
     </row>
-    <row r="101" spans="1:12" ht="27.6">
+    <row r="101" spans="1:12" ht="25.5">
       <c r="A101" s="4" t="s">
         <v>246</v>
       </c>
@@ -36614,7 +36614,7 @@
       </c>
       <c r="L103" s="421"/>
     </row>
-    <row r="104" spans="1:12" ht="124.2">
+    <row r="104" spans="1:12" ht="114.75">
       <c r="A104" s="4" t="s">
         <v>255</v>
       </c>
@@ -36820,7 +36820,7 @@
       </c>
       <c r="L111" s="421"/>
     </row>
-    <row r="112" spans="1:12" s="210" customFormat="1" ht="41.4">
+    <row r="112" spans="1:12" s="210" customFormat="1" ht="38.25">
       <c r="A112" s="4" t="s">
         <v>276</v>
       </c>
@@ -36948,7 +36948,7 @@
       </c>
       <c r="L117" s="421"/>
     </row>
-    <row r="118" spans="1:12" ht="13.8">
+    <row r="118" spans="1:12">
       <c r="A118" s="4" t="s">
         <v>287</v>
       </c>
@@ -36966,7 +36966,7 @@
       <c r="K118" s="287"/>
       <c r="L118" s="421"/>
     </row>
-    <row r="119" spans="1:12" ht="69">
+    <row r="119" spans="1:12" ht="63.75">
       <c r="A119" s="4" t="s">
         <v>289</v>
       </c>
@@ -37022,7 +37022,7 @@
       </c>
       <c r="L120" s="421"/>
     </row>
-    <row r="121" spans="1:12" ht="27.6">
+    <row r="121" spans="1:12" ht="25.5">
       <c r="A121" s="4" t="s">
         <v>297</v>
       </c>
@@ -37046,7 +37046,7 @@
       <c r="K121" s="285"/>
       <c r="L121" s="421"/>
     </row>
-    <row r="122" spans="1:12" ht="27.6">
+    <row r="122" spans="1:12" ht="25.5">
       <c r="A122" s="4" t="s">
         <v>299</v>
       </c>
@@ -37064,7 +37064,7 @@
       <c r="K122" s="285"/>
       <c r="L122" s="421"/>
     </row>
-    <row r="123" spans="1:12" ht="41.4">
+    <row r="123" spans="1:12" ht="38.25">
       <c r="A123" s="4" t="s">
         <v>300</v>
       </c>
@@ -37114,7 +37114,7 @@
       </c>
       <c r="L124" s="421"/>
     </row>
-    <row r="125" spans="1:12" ht="69">
+    <row r="125" spans="1:12" ht="63.75">
       <c r="A125" s="4" t="s">
         <v>306</v>
       </c>
@@ -37142,7 +37142,7 @@
       </c>
       <c r="L125" s="421"/>
     </row>
-    <row r="126" spans="1:12" ht="82.8">
+    <row r="126" spans="1:12" ht="76.5">
       <c r="A126" s="4" t="s">
         <v>309</v>
       </c>
@@ -37990,7 +37990,7 @@
       <c r="K164" s="285"/>
       <c r="L164" s="421"/>
     </row>
-    <row r="165" spans="1:13" ht="41.4">
+    <row r="165" spans="1:13" ht="38.25">
       <c r="A165" s="4" t="s">
         <v>380</v>
       </c>
@@ -38042,7 +38042,7 @@
       </c>
       <c r="L166" s="421"/>
     </row>
-    <row r="167" spans="1:13" ht="27.6">
+    <row r="167" spans="1:13" ht="25.5">
       <c r="A167" s="4" t="s">
         <v>386</v>
       </c>
@@ -38066,7 +38066,7 @@
       <c r="K167" s="287"/>
       <c r="L167" s="421"/>
     </row>
-    <row r="168" spans="1:13" ht="27.6">
+    <row r="168" spans="1:13" ht="38.25">
       <c r="A168" s="4" t="s">
         <v>387</v>
       </c>
@@ -38090,7 +38090,7 @@
       <c r="K168" s="287"/>
       <c r="L168" s="421"/>
     </row>
-    <row r="169" spans="1:13" ht="27.6">
+    <row r="169" spans="1:13" ht="25.5">
       <c r="A169" s="4" t="s">
         <v>388</v>
       </c>
@@ -38116,7 +38116,7 @@
       <c r="K169" s="287"/>
       <c r="L169" s="421"/>
     </row>
-    <row r="170" spans="1:13" ht="27.6">
+    <row r="170" spans="1:13" ht="25.5">
       <c r="A170" s="4" t="s">
         <v>390</v>
       </c>
@@ -38140,7 +38140,7 @@
       <c r="K170" s="287"/>
       <c r="L170" s="421"/>
     </row>
-    <row r="171" spans="1:13" ht="27.6">
+    <row r="171" spans="1:13" ht="38.25">
       <c r="A171" s="4" t="s">
         <v>391</v>
       </c>
@@ -38164,7 +38164,7 @@
       <c r="K171" s="287"/>
       <c r="L171" s="421"/>
     </row>
-    <row r="172" spans="1:13" ht="27.6">
+    <row r="172" spans="1:13" ht="25.5">
       <c r="A172" s="4" t="s">
         <v>392</v>
       </c>
@@ -38190,7 +38190,7 @@
       <c r="K172" s="287"/>
       <c r="L172" s="421"/>
     </row>
-    <row r="173" spans="1:13" ht="27.6">
+    <row r="173" spans="1:13" ht="25.5">
       <c r="A173" s="4" t="s">
         <v>394</v>
       </c>
@@ -38214,7 +38214,7 @@
       <c r="K173" s="287"/>
       <c r="L173" s="421"/>
     </row>
-    <row r="174" spans="1:13" ht="27.6">
+    <row r="174" spans="1:13" ht="38.25">
       <c r="A174" s="4" t="s">
         <v>395</v>
       </c>
@@ -38238,7 +38238,7 @@
       <c r="K174" s="287"/>
       <c r="L174" s="421"/>
     </row>
-    <row r="175" spans="1:13" ht="27.6">
+    <row r="175" spans="1:13" ht="25.5">
       <c r="A175" s="4" t="s">
         <v>396</v>
       </c>
@@ -38266,7 +38266,7 @@
       <c r="K175" s="287"/>
       <c r="L175" s="421"/>
     </row>
-    <row r="176" spans="1:13" ht="13.8">
+    <row r="176" spans="1:13">
       <c r="A176" s="165"/>
       <c r="B176" s="165" t="s">
         <v>400</v>
@@ -38282,7 +38282,7 @@
       <c r="K176" s="212"/>
       <c r="L176" s="421"/>
     </row>
-    <row r="177" spans="1:12" ht="55.2">
+    <row r="177" spans="1:12" ht="63.75">
       <c r="A177" s="4" t="s">
         <v>399</v>
       </c>
@@ -38358,7 +38358,7 @@
       <c r="K179" s="287"/>
       <c r="L179" s="421"/>
     </row>
-    <row r="180" spans="1:12" ht="27.6">
+    <row r="180" spans="1:12" ht="25.5">
       <c r="A180" s="4" t="s">
         <v>409</v>
       </c>
@@ -38422,7 +38422,7 @@
       <c r="K182" s="287"/>
       <c r="L182" s="421"/>
     </row>
-    <row r="183" spans="1:12" ht="69">
+    <row r="183" spans="1:12" ht="63.75">
       <c r="A183" s="4" t="s">
         <v>419</v>
       </c>
@@ -38451,7 +38451,7 @@
       </c>
       <c r="L183" s="421"/>
     </row>
-    <row r="184" spans="1:12" ht="13.8">
+    <row r="184" spans="1:12">
       <c r="A184" s="165"/>
       <c r="B184" s="165" t="s">
         <v>427</v>
@@ -38467,7 +38467,7 @@
       <c r="K184" s="216"/>
       <c r="L184" s="421"/>
     </row>
-    <row r="185" spans="1:12" ht="69">
+    <row r="185" spans="1:12" ht="63.75">
       <c r="A185" s="4" t="s">
         <v>421</v>
       </c>
@@ -38553,7 +38553,7 @@
       </c>
       <c r="L187" s="421"/>
     </row>
-    <row r="188" spans="1:12" ht="27.6">
+    <row r="188" spans="1:12" ht="25.5">
       <c r="A188" s="4" t="s">
         <v>432</v>
       </c>
@@ -38640,7 +38640,7 @@
       <c r="K191" s="287"/>
       <c r="L191" s="421"/>
     </row>
-    <row r="192" spans="1:12" ht="69">
+    <row r="192" spans="1:12" ht="63.75">
       <c r="A192" s="4" t="s">
         <v>448</v>
       </c>
@@ -38883,7 +38883,7 @@
       </c>
       <c r="L201" s="421"/>
     </row>
-    <row r="202" spans="1:12" ht="69">
+    <row r="202" spans="1:12" ht="63.75">
       <c r="A202" s="4" t="s">
         <v>483</v>
       </c>
@@ -38908,7 +38908,7 @@
       </c>
       <c r="L202" s="421"/>
     </row>
-    <row r="203" spans="1:12" ht="96.6">
+    <row r="203" spans="1:12" ht="89.25">
       <c r="A203" s="4" t="s">
         <v>485</v>
       </c>
@@ -38936,7 +38936,7 @@
       </c>
       <c r="L203" s="421"/>
     </row>
-    <row r="204" spans="1:12" ht="69">
+    <row r="204" spans="1:12" ht="63.75">
       <c r="A204" s="4" t="s">
         <v>489</v>
       </c>
@@ -38989,7 +38989,7 @@
       </c>
       <c r="L205" s="421"/>
     </row>
-    <row r="206" spans="1:12" ht="27.6">
+    <row r="206" spans="1:12" ht="25.5">
       <c r="A206" s="4" t="s">
         <v>496</v>
       </c>
@@ -39139,7 +39139,7 @@
       </c>
       <c r="L212" s="421"/>
     </row>
-    <row r="213" spans="1:12" ht="27.6">
+    <row r="213" spans="1:12" ht="25.5">
       <c r="A213" s="4" t="s">
         <v>515</v>
       </c>
@@ -39157,7 +39157,7 @@
       <c r="K213" s="418"/>
       <c r="L213" s="421"/>
     </row>
-    <row r="214" spans="1:12" ht="82.8">
+    <row r="214" spans="1:12" ht="76.5">
       <c r="A214" s="4" t="s">
         <v>517</v>
       </c>
@@ -39208,7 +39208,7 @@
       </c>
       <c r="L215" s="421"/>
     </row>
-    <row r="216" spans="1:12" ht="69">
+    <row r="216" spans="1:12" ht="63.75">
       <c r="A216" s="4" t="s">
         <v>521</v>
       </c>
@@ -39258,7 +39258,7 @@
       </c>
       <c r="L217" s="421"/>
     </row>
-    <row r="218" spans="1:12" ht="27.6">
+    <row r="218" spans="1:12" ht="25.5">
       <c r="A218" s="4" t="s">
         <v>529</v>
       </c>
@@ -39301,7 +39301,7 @@
       </c>
       <c r="L219" s="421"/>
     </row>
-    <row r="220" spans="1:12" ht="27.6">
+    <row r="220" spans="1:12" ht="25.5">
       <c r="A220" s="4" t="s">
         <v>536</v>
       </c>
@@ -39319,7 +39319,7 @@
       <c r="K220" s="287"/>
       <c r="L220" s="421"/>
     </row>
-    <row r="221" spans="1:12" ht="82.8">
+    <row r="221" spans="1:12" ht="76.5">
       <c r="A221" s="4" t="s">
         <v>537</v>
       </c>
@@ -39347,7 +39347,7 @@
       </c>
       <c r="L221" s="421"/>
     </row>
-    <row r="222" spans="1:12" ht="69">
+    <row r="222" spans="1:12" ht="63.75">
       <c r="A222" s="4" t="s">
         <v>542</v>
       </c>
@@ -39373,7 +39373,7 @@
       </c>
       <c r="L222" s="421"/>
     </row>
-    <row r="223" spans="1:12" ht="69">
+    <row r="223" spans="1:12" ht="63.75">
       <c r="A223" s="4" t="s">
         <v>543</v>
       </c>
@@ -39399,7 +39399,7 @@
       </c>
       <c r="L223" s="421"/>
     </row>
-    <row r="224" spans="1:12" ht="69">
+    <row r="224" spans="1:12" ht="63.75">
       <c r="A224" s="4" t="s">
         <v>546</v>
       </c>
@@ -39425,7 +39425,7 @@
       </c>
       <c r="L224" s="421"/>
     </row>
-    <row r="225" spans="1:12" ht="13.8">
+    <row r="225" spans="1:12">
       <c r="A225" s="10"/>
       <c r="B225" s="10" t="s">
         <v>555</v>
@@ -39441,7 +39441,7 @@
       <c r="K225" s="216"/>
       <c r="L225" s="421"/>
     </row>
-    <row r="226" spans="1:12" ht="55.2">
+    <row r="226" spans="1:12" ht="63.75">
       <c r="A226" s="4" t="s">
         <v>548</v>
       </c>
@@ -39465,7 +39465,7 @@
       </c>
       <c r="L226" s="421"/>
     </row>
-    <row r="227" spans="1:12" ht="27.6">
+    <row r="227" spans="1:12" ht="25.5">
       <c r="A227" s="4" t="s">
         <v>551</v>
       </c>
@@ -39489,7 +39489,7 @@
       </c>
       <c r="L227" s="421"/>
     </row>
-    <row r="228" spans="1:12" ht="27.6">
+    <row r="228" spans="1:12" ht="25.5">
       <c r="A228" s="4" t="s">
         <v>554</v>
       </c>
@@ -39511,7 +39511,7 @@
       <c r="K228" s="287"/>
       <c r="L228" s="421"/>
     </row>
-    <row r="229" spans="1:12" ht="13.8">
+    <row r="229" spans="1:12">
       <c r="A229" s="10"/>
       <c r="B229" s="10" t="s">
         <v>565</v>
@@ -39612,7 +39612,7 @@
       <c r="K233" s="287"/>
       <c r="L233" s="421"/>
     </row>
-    <row r="234" spans="1:12" ht="27.6">
+    <row r="234" spans="1:12" ht="25.5">
       <c r="A234" s="4" t="s">
         <v>566</v>
       </c>
@@ -39890,7 +39890,7 @@
       <c r="K247" s="287"/>
       <c r="L247" s="421"/>
     </row>
-    <row r="248" spans="1:12" ht="27.6">
+    <row r="248" spans="1:12" ht="25.5">
       <c r="A248" s="4" t="s">
         <v>598</v>
       </c>
@@ -39938,7 +39938,7 @@
       <c r="K249" s="287"/>
       <c r="L249" s="421"/>
     </row>
-    <row r="250" spans="1:12" ht="13.8">
+    <row r="250" spans="1:12">
       <c r="A250" s="4" t="s">
         <v>603</v>
       </c>
@@ -40172,7 +40172,7 @@
       <c r="K260" s="287"/>
       <c r="L260" s="421"/>
     </row>
-    <row r="261" spans="1:12" ht="13.8">
+    <row r="261" spans="1:12">
       <c r="A261" s="4" t="s">
         <v>622</v>
       </c>
@@ -40190,7 +40190,7 @@
       <c r="K261" s="287"/>
       <c r="L261" s="421"/>
     </row>
-    <row r="262" spans="1:12" ht="13.8">
+    <row r="262" spans="1:12">
       <c r="A262" s="4" t="s">
         <v>623</v>
       </c>
@@ -40232,7 +40232,7 @@
       <c r="K263" s="287"/>
       <c r="L263" s="421"/>
     </row>
-    <row r="264" spans="1:12" ht="13.8">
+    <row r="264" spans="1:12">
       <c r="A264" s="4" t="s">
         <v>627</v>
       </c>
@@ -40272,7 +40272,7 @@
       <c r="K265" s="287"/>
       <c r="L265" s="421"/>
     </row>
-    <row r="266" spans="1:12" ht="13.8">
+    <row r="266" spans="1:12">
       <c r="A266" s="4" t="s">
         <v>630</v>
       </c>
@@ -40392,7 +40392,7 @@
       <c r="K270" s="285"/>
       <c r="L270" s="421"/>
     </row>
-    <row r="271" spans="1:12" ht="13.8">
+    <row r="271" spans="1:12">
       <c r="A271" s="4" t="s">
         <v>636</v>
       </c>
@@ -40539,7 +40539,7 @@
       </c>
       <c r="L276" s="421"/>
     </row>
-    <row r="277" spans="1:12" ht="41.4">
+    <row r="277" spans="1:12" ht="38.25">
       <c r="A277" s="4" t="s">
         <v>656</v>
       </c>
@@ -40646,7 +40646,7 @@
       <c r="K281" s="286"/>
       <c r="L281" s="421"/>
     </row>
-    <row r="282" spans="1:12" s="230" customFormat="1" ht="13.8">
+    <row r="282" spans="1:12" s="230" customFormat="1">
       <c r="A282" s="83"/>
       <c r="B282" s="83" t="s">
         <v>674</v>
@@ -40836,7 +40836,7 @@
       <c r="K290" s="287"/>
       <c r="L290" s="421"/>
     </row>
-    <row r="291" spans="1:12" ht="27.6">
+    <row r="291" spans="1:12" ht="25.5">
       <c r="A291" s="4" t="s">
         <v>685</v>
       </c>
@@ -40957,7 +40957,7 @@
       <c r="K296" s="287"/>
       <c r="L296" s="421"/>
     </row>
-    <row r="297" spans="1:12" ht="27.6">
+    <row r="297" spans="1:12" ht="25.5">
       <c r="A297" s="4" t="s">
         <v>702</v>
       </c>
@@ -40977,7 +40977,7 @@
       <c r="K297" s="287"/>
       <c r="L297" s="421"/>
     </row>
-    <row r="298" spans="1:12" ht="27.6">
+    <row r="298" spans="1:12" ht="25.5">
       <c r="A298" s="4" t="s">
         <v>706</v>
       </c>
@@ -41115,7 +41115,7 @@
       <c r="K304" s="287"/>
       <c r="L304" s="421"/>
     </row>
-    <row r="305" spans="1:13" ht="27.6">
+    <row r="305" spans="1:13" ht="25.5">
       <c r="A305" s="4" t="s">
         <v>724</v>
       </c>
@@ -41163,7 +41163,7 @@
       </c>
       <c r="L306" s="421"/>
     </row>
-    <row r="307" spans="1:13" ht="27.6">
+    <row r="307" spans="1:13" ht="25.5">
       <c r="A307" s="4" t="s">
         <v>728</v>
       </c>
@@ -41201,7 +41201,7 @@
       <c r="K308" s="287"/>
       <c r="L308" s="421"/>
     </row>
-    <row r="309" spans="1:13" ht="27.6">
+    <row r="309" spans="1:13" ht="25.5">
       <c r="A309" s="4" t="s">
         <v>732</v>
       </c>
@@ -41239,7 +41239,7 @@
       <c r="K310" s="287"/>
       <c r="L310" s="421"/>
     </row>
-    <row r="311" spans="1:13" ht="27.6">
+    <row r="311" spans="1:13" ht="25.5">
       <c r="A311" s="4" t="s">
         <v>737</v>
       </c>
@@ -41257,7 +41257,7 @@
       <c r="K311" s="287"/>
       <c r="L311" s="421"/>
     </row>
-    <row r="312" spans="1:13" ht="55.2">
+    <row r="312" spans="1:13" ht="51">
       <c r="A312" s="4" t="s">
         <v>742</v>
       </c>
@@ -41277,7 +41277,7 @@
       <c r="K312" s="287"/>
       <c r="L312" s="421"/>
     </row>
-    <row r="313" spans="1:13" ht="27.6">
+    <row r="313" spans="1:13" ht="25.5">
       <c r="A313" s="4" t="s">
         <v>744</v>
       </c>
@@ -41318,7 +41318,7 @@
       </c>
       <c r="L314" s="421"/>
     </row>
-    <row r="315" spans="1:13" ht="69">
+    <row r="315" spans="1:13" ht="63.75">
       <c r="A315" s="4" t="s">
         <v>747</v>
       </c>
@@ -41745,16 +41745,16 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="7" customWidth="1"/>
     <col min="2" max="2" width="41" style="7" customWidth="1"/>
     <col min="3" max="3" width="46" style="7" customWidth="1"/>
-    <col min="4" max="4" width="40.6640625" style="7" customWidth="1"/>
-    <col min="5" max="6" width="42.6640625" style="7" customWidth="1"/>
-    <col min="7" max="8" width="44.6640625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="25.33203125" style="7" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="7"/>
+    <col min="4" max="4" width="40.7109375" style="7" customWidth="1"/>
+    <col min="5" max="6" width="42.7109375" style="7" customWidth="1"/>
+    <col min="7" max="8" width="44.7109375" style="7" customWidth="1"/>
+    <col min="9" max="9" width="25.28515625" style="7" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1">
@@ -41779,7 +41779,7 @@
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
     </row>
-    <row r="4" spans="1:10" ht="13.8">
+    <row r="4" spans="1:10">
       <c r="A4" s="175"/>
       <c r="B4" s="92" t="s">
         <v>2</v>
@@ -41794,7 +41794,7 @@
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
     </row>
-    <row r="5" spans="1:10" ht="13.8">
+    <row r="5" spans="1:10">
       <c r="A5" s="175"/>
       <c r="B5" s="92" t="s">
         <v>4</v>
@@ -41809,7 +41809,7 @@
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
     </row>
-    <row r="6" spans="1:10" ht="13.8">
+    <row r="6" spans="1:10">
       <c r="A6" s="176" t="s">
         <v>19</v>
       </c>
@@ -41839,7 +41839,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="13.8">
+    <row r="7" spans="1:10">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="164" t="s">
@@ -41853,7 +41853,7 @@
       <c r="I7" s="76"/>
       <c r="J7" s="236"/>
     </row>
-    <row r="8" spans="1:10" ht="27.6">
+    <row r="8" spans="1:10" ht="25.5">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="102" t="s">
@@ -42045,7 +42045,7 @@
       <c r="I18" s="287"/>
       <c r="J18" s="421"/>
     </row>
-    <row r="19" spans="1:10" ht="27.6">
+    <row r="19" spans="1:10" ht="25.5">
       <c r="A19" s="4" t="s">
         <v>790</v>
       </c>
@@ -42149,7 +42149,7 @@
       <c r="I24" s="287"/>
       <c r="J24" s="421"/>
     </row>
-    <row r="25" spans="1:10" ht="82.8">
+    <row r="25" spans="1:10" ht="76.5">
       <c r="A25" s="4" t="s">
         <v>801</v>
       </c>
@@ -42211,7 +42211,7 @@
       <c r="I27" s="287"/>
       <c r="J27" s="421"/>
     </row>
-    <row r="28" spans="1:10" ht="82.8">
+    <row r="28" spans="1:10" ht="76.5">
       <c r="A28" s="4" t="s">
         <v>809</v>
       </c>
@@ -42341,7 +42341,7 @@
       </c>
       <c r="J33" s="421"/>
     </row>
-    <row r="34" spans="1:10" ht="27.6">
+    <row r="34" spans="1:10" ht="25.5">
       <c r="A34" s="4" t="s">
         <v>826</v>
       </c>
@@ -42383,7 +42383,7 @@
       </c>
       <c r="J35" s="421"/>
     </row>
-    <row r="36" spans="1:10" ht="82.8">
+    <row r="36" spans="1:10" ht="76.5">
       <c r="A36" s="4" t="s">
         <v>834</v>
       </c>
@@ -42541,7 +42541,7 @@
       </c>
       <c r="J43" s="421"/>
     </row>
-    <row r="44" spans="1:10" ht="27.6">
+    <row r="44" spans="1:10" ht="25.5">
       <c r="A44" s="4" t="s">
         <v>852</v>
       </c>
@@ -42557,7 +42557,7 @@
       <c r="I44" s="287"/>
       <c r="J44" s="421"/>
     </row>
-    <row r="45" spans="1:10" ht="27.6">
+    <row r="45" spans="1:10" ht="25.5">
       <c r="A45" s="4" t="s">
         <v>854</v>
       </c>
@@ -42575,7 +42575,7 @@
       <c r="I45" s="287"/>
       <c r="J45" s="421"/>
     </row>
-    <row r="46" spans="1:10" ht="27.6">
+    <row r="46" spans="1:10" ht="25.5">
       <c r="A46" s="4" t="s">
         <v>858</v>
       </c>
@@ -42591,7 +42591,7 @@
       <c r="I46" s="287"/>
       <c r="J46" s="421"/>
     </row>
-    <row r="47" spans="1:10" ht="27.6">
+    <row r="47" spans="1:10" ht="25.5">
       <c r="A47" s="4" t="s">
         <v>860</v>
       </c>
@@ -42609,7 +42609,7 @@
       <c r="I47" s="287"/>
       <c r="J47" s="421"/>
     </row>
-    <row r="48" spans="1:10" ht="27.6">
+    <row r="48" spans="1:10" ht="25.5">
       <c r="A48" s="4" t="s">
         <v>861</v>
       </c>
@@ -43432,7 +43432,7 @@
       <c r="I95" s="287"/>
       <c r="J95" s="421"/>
     </row>
-    <row r="96" spans="1:10" ht="27.6">
+    <row r="96" spans="1:10" ht="25.5">
       <c r="A96" s="4" t="s">
         <v>945</v>
       </c>
@@ -43860,7 +43860,7 @@
       <c r="I121" s="27"/>
       <c r="J121" s="421"/>
     </row>
-    <row r="122" spans="1:10" ht="27.6">
+    <row r="122" spans="1:10" ht="25.5">
       <c r="A122" s="4" t="s">
         <v>986</v>
       </c>
@@ -44496,7 +44496,7 @@
       <c r="J156" s="421"/>
       <c r="K156" s="242"/>
     </row>
-    <row r="157" spans="1:11" ht="82.8">
+    <row r="157" spans="1:11" ht="76.5">
       <c r="A157" s="4" t="s">
         <v>1034</v>
       </c>
@@ -44536,7 +44536,7 @@
       <c r="I158" s="216"/>
       <c r="J158" s="421"/>
     </row>
-    <row r="159" spans="1:11" ht="82.8">
+    <row r="159" spans="1:11" ht="76.5">
       <c r="A159" s="4" t="s">
         <v>1036</v>
       </c>
@@ -44558,7 +44558,7 @@
       </c>
       <c r="J159" s="421"/>
     </row>
-    <row r="160" spans="1:11" ht="82.8">
+    <row r="160" spans="1:11" ht="76.5">
       <c r="A160" s="4" t="s">
         <v>1038</v>
       </c>
@@ -44618,7 +44618,7 @@
       <c r="I162" s="301"/>
       <c r="J162" s="421"/>
     </row>
-    <row r="163" spans="1:11" ht="27.6">
+    <row r="163" spans="1:11" ht="25.5">
       <c r="A163" s="4" t="s">
         <v>1048</v>
       </c>
@@ -44656,7 +44656,7 @@
       </c>
       <c r="J164" s="421"/>
     </row>
-    <row r="165" spans="1:11" ht="55.2">
+    <row r="165" spans="1:11" ht="63.75">
       <c r="A165" s="4" t="s">
         <v>1054</v>
       </c>
@@ -44693,471 +44693,471 @@
       <c r="J166" s="421"/>
       <c r="K166" s="193"/>
     </row>
-    <row r="167" spans="1:11" ht="13.8">
+    <row r="167" spans="1:11">
       <c r="C167" s="5"/>
       <c r="J167" s="421"/>
     </row>
-    <row r="168" spans="1:11" ht="13.8">
+    <row r="168" spans="1:11">
       <c r="C168" s="5"/>
       <c r="J168" s="421"/>
     </row>
-    <row r="169" spans="1:11" ht="13.8">
+    <row r="169" spans="1:11">
       <c r="C169" s="5"/>
       <c r="J169" s="421"/>
     </row>
-    <row r="170" spans="1:11" ht="13.8">
+    <row r="170" spans="1:11">
       <c r="C170" s="5"/>
       <c r="J170" s="421"/>
     </row>
-    <row r="171" spans="1:11" ht="13.8">
+    <row r="171" spans="1:11">
       <c r="C171" s="5"/>
       <c r="J171" s="421"/>
     </row>
-    <row r="172" spans="1:11" ht="13.8">
+    <row r="172" spans="1:11">
       <c r="C172" s="5"/>
       <c r="J172" s="421"/>
     </row>
-    <row r="173" spans="1:11" ht="13.8">
+    <row r="173" spans="1:11">
       <c r="C173" s="5"/>
       <c r="J173" s="421"/>
     </row>
-    <row r="174" spans="1:11" ht="13.8">
+    <row r="174" spans="1:11">
       <c r="C174" s="5"/>
       <c r="J174" s="421"/>
     </row>
-    <row r="175" spans="1:11" ht="13.8">
+    <row r="175" spans="1:11">
       <c r="C175" s="5"/>
       <c r="J175" s="421"/>
     </row>
-    <row r="176" spans="1:11" ht="13.8">
+    <row r="176" spans="1:11">
       <c r="C176" s="5"/>
       <c r="J176" s="421"/>
     </row>
-    <row r="177" spans="3:10" ht="13.8">
+    <row r="177" spans="3:10">
       <c r="C177" s="5"/>
       <c r="J177" s="421"/>
     </row>
-    <row r="178" spans="3:10" ht="13.8">
+    <row r="178" spans="3:10">
       <c r="J178" s="421"/>
     </row>
-    <row r="179" spans="3:10" ht="13.8">
+    <row r="179" spans="3:10">
       <c r="J179" s="421"/>
     </row>
-    <row r="180" spans="3:10" ht="13.8">
+    <row r="180" spans="3:10">
       <c r="J180" s="421"/>
     </row>
-    <row r="181" spans="3:10" ht="13.8">
+    <row r="181" spans="3:10">
       <c r="J181" s="421"/>
     </row>
-    <row r="182" spans="3:10" ht="13.8">
+    <row r="182" spans="3:10">
       <c r="J182" s="421"/>
     </row>
-    <row r="183" spans="3:10" ht="13.8">
+    <row r="183" spans="3:10">
       <c r="J183" s="421"/>
     </row>
-    <row r="184" spans="3:10" ht="13.8">
+    <row r="184" spans="3:10">
       <c r="J184" s="421"/>
     </row>
-    <row r="185" spans="3:10" ht="13.8">
+    <row r="185" spans="3:10">
       <c r="J185" s="421"/>
     </row>
-    <row r="186" spans="3:10" ht="13.8">
+    <row r="186" spans="3:10">
       <c r="J186" s="421"/>
     </row>
-    <row r="187" spans="3:10" ht="13.8">
+    <row r="187" spans="3:10">
       <c r="J187" s="421"/>
     </row>
-    <row r="188" spans="3:10" ht="13.8">
+    <row r="188" spans="3:10">
       <c r="J188" s="421"/>
     </row>
-    <row r="189" spans="3:10" ht="13.8">
+    <row r="189" spans="3:10">
       <c r="J189" s="421"/>
     </row>
-    <row r="190" spans="3:10" ht="13.8">
+    <row r="190" spans="3:10">
       <c r="J190" s="421"/>
     </row>
-    <row r="191" spans="3:10" ht="13.8">
+    <row r="191" spans="3:10">
       <c r="J191" s="421"/>
     </row>
-    <row r="192" spans="3:10" ht="13.8">
+    <row r="192" spans="3:10">
       <c r="J192" s="421"/>
     </row>
-    <row r="193" spans="10:10" ht="13.8">
+    <row r="193" spans="10:10">
       <c r="J193" s="421"/>
     </row>
-    <row r="194" spans="10:10" ht="13.8">
+    <row r="194" spans="10:10">
       <c r="J194" s="421"/>
     </row>
-    <row r="195" spans="10:10" ht="13.8">
+    <row r="195" spans="10:10">
       <c r="J195" s="421"/>
     </row>
-    <row r="196" spans="10:10" ht="13.8">
+    <row r="196" spans="10:10">
       <c r="J196" s="421"/>
     </row>
-    <row r="197" spans="10:10" ht="13.8">
+    <row r="197" spans="10:10">
       <c r="J197" s="421"/>
     </row>
-    <row r="198" spans="10:10" ht="13.8">
+    <row r="198" spans="10:10">
       <c r="J198" s="421"/>
     </row>
-    <row r="199" spans="10:10" ht="13.8">
+    <row r="199" spans="10:10">
       <c r="J199" s="421"/>
     </row>
-    <row r="200" spans="10:10" ht="13.8">
+    <row r="200" spans="10:10">
       <c r="J200" s="421"/>
     </row>
-    <row r="201" spans="10:10" ht="13.8">
+    <row r="201" spans="10:10">
       <c r="J201" s="421"/>
     </row>
-    <row r="202" spans="10:10" ht="13.8">
+    <row r="202" spans="10:10">
       <c r="J202" s="421"/>
     </row>
-    <row r="203" spans="10:10" ht="13.8">
+    <row r="203" spans="10:10">
       <c r="J203" s="421"/>
     </row>
-    <row r="204" spans="10:10" ht="13.8">
+    <row r="204" spans="10:10">
       <c r="J204" s="421"/>
     </row>
-    <row r="205" spans="10:10" ht="13.8">
+    <row r="205" spans="10:10">
       <c r="J205" s="421"/>
     </row>
-    <row r="206" spans="10:10" ht="13.8">
+    <row r="206" spans="10:10">
       <c r="J206" s="421"/>
     </row>
-    <row r="207" spans="10:10" ht="13.8">
+    <row r="207" spans="10:10">
       <c r="J207" s="421"/>
     </row>
-    <row r="208" spans="10:10" ht="13.8">
+    <row r="208" spans="10:10">
       <c r="J208" s="421"/>
     </row>
-    <row r="209" spans="10:10" ht="13.8">
+    <row r="209" spans="10:10">
       <c r="J209" s="421"/>
     </row>
-    <row r="210" spans="10:10" ht="13.8">
+    <row r="210" spans="10:10">
       <c r="J210" s="421"/>
     </row>
-    <row r="211" spans="10:10" ht="13.8">
+    <row r="211" spans="10:10">
       <c r="J211" s="421"/>
     </row>
-    <row r="212" spans="10:10" ht="13.8">
+    <row r="212" spans="10:10">
       <c r="J212" s="421"/>
     </row>
-    <row r="213" spans="10:10" ht="13.8">
+    <row r="213" spans="10:10">
       <c r="J213" s="421"/>
     </row>
-    <row r="214" spans="10:10" ht="13.8">
+    <row r="214" spans="10:10">
       <c r="J214" s="421"/>
     </row>
-    <row r="215" spans="10:10" ht="13.8">
+    <row r="215" spans="10:10">
       <c r="J215" s="421"/>
     </row>
-    <row r="216" spans="10:10" ht="13.8">
+    <row r="216" spans="10:10">
       <c r="J216" s="421"/>
     </row>
-    <row r="217" spans="10:10" ht="13.8">
+    <row r="217" spans="10:10">
       <c r="J217" s="421"/>
     </row>
-    <row r="218" spans="10:10" ht="13.8">
+    <row r="218" spans="10:10">
       <c r="J218" s="421"/>
     </row>
-    <row r="219" spans="10:10" ht="13.8">
+    <row r="219" spans="10:10">
       <c r="J219" s="421"/>
     </row>
-    <row r="220" spans="10:10" ht="13.8">
+    <row r="220" spans="10:10">
       <c r="J220" s="421"/>
     </row>
-    <row r="221" spans="10:10" ht="13.8">
+    <row r="221" spans="10:10">
       <c r="J221" s="421"/>
     </row>
-    <row r="222" spans="10:10" ht="13.8">
+    <row r="222" spans="10:10">
       <c r="J222" s="421"/>
     </row>
-    <row r="223" spans="10:10" ht="13.8">
+    <row r="223" spans="10:10">
       <c r="J223" s="421"/>
     </row>
-    <row r="224" spans="10:10" ht="13.8">
+    <row r="224" spans="10:10">
       <c r="J224" s="421"/>
     </row>
-    <row r="225" spans="10:10" ht="13.8">
+    <row r="225" spans="10:10">
       <c r="J225" s="421"/>
     </row>
-    <row r="226" spans="10:10" ht="13.8">
+    <row r="226" spans="10:10">
       <c r="J226" s="421"/>
     </row>
-    <row r="227" spans="10:10" ht="13.8">
+    <row r="227" spans="10:10">
       <c r="J227" s="421"/>
     </row>
-    <row r="228" spans="10:10" ht="13.8">
+    <row r="228" spans="10:10">
       <c r="J228" s="421"/>
     </row>
-    <row r="229" spans="10:10" ht="13.8">
+    <row r="229" spans="10:10">
       <c r="J229" s="421"/>
     </row>
-    <row r="230" spans="10:10" ht="13.8">
+    <row r="230" spans="10:10">
       <c r="J230" s="421"/>
     </row>
-    <row r="231" spans="10:10" ht="13.8">
+    <row r="231" spans="10:10">
       <c r="J231" s="421"/>
     </row>
-    <row r="232" spans="10:10" ht="13.8">
+    <row r="232" spans="10:10">
       <c r="J232" s="421"/>
     </row>
-    <row r="233" spans="10:10" ht="13.8">
+    <row r="233" spans="10:10">
       <c r="J233" s="421"/>
     </row>
-    <row r="234" spans="10:10" ht="13.8">
+    <row r="234" spans="10:10">
       <c r="J234" s="421"/>
     </row>
-    <row r="235" spans="10:10" ht="13.8">
+    <row r="235" spans="10:10">
       <c r="J235" s="421"/>
     </row>
-    <row r="236" spans="10:10" ht="13.8">
+    <row r="236" spans="10:10">
       <c r="J236" s="421"/>
     </row>
-    <row r="237" spans="10:10" ht="13.8">
+    <row r="237" spans="10:10">
       <c r="J237" s="421"/>
     </row>
-    <row r="238" spans="10:10" ht="13.8">
+    <row r="238" spans="10:10">
       <c r="J238" s="421"/>
     </row>
-    <row r="239" spans="10:10" ht="13.8">
+    <row r="239" spans="10:10">
       <c r="J239" s="421"/>
     </row>
-    <row r="240" spans="10:10" ht="13.8">
+    <row r="240" spans="10:10">
       <c r="J240" s="421"/>
     </row>
-    <row r="241" spans="10:10" ht="13.8">
+    <row r="241" spans="10:10">
       <c r="J241" s="421"/>
     </row>
-    <row r="242" spans="10:10" ht="13.8">
+    <row r="242" spans="10:10">
       <c r="J242" s="421"/>
     </row>
-    <row r="243" spans="10:10" ht="13.8">
+    <row r="243" spans="10:10">
       <c r="J243" s="421"/>
     </row>
-    <row r="244" spans="10:10" ht="13.8">
+    <row r="244" spans="10:10">
       <c r="J244" s="421"/>
     </row>
-    <row r="245" spans="10:10" ht="13.8">
+    <row r="245" spans="10:10">
       <c r="J245" s="421"/>
     </row>
-    <row r="246" spans="10:10" ht="13.8">
+    <row r="246" spans="10:10">
       <c r="J246" s="421"/>
     </row>
-    <row r="247" spans="10:10" ht="13.8">
+    <row r="247" spans="10:10">
       <c r="J247" s="421"/>
     </row>
-    <row r="248" spans="10:10" ht="13.8">
+    <row r="248" spans="10:10">
       <c r="J248" s="421"/>
     </row>
-    <row r="249" spans="10:10" ht="13.8">
+    <row r="249" spans="10:10">
       <c r="J249" s="421"/>
     </row>
-    <row r="250" spans="10:10" ht="13.8">
+    <row r="250" spans="10:10">
       <c r="J250" s="421"/>
     </row>
-    <row r="251" spans="10:10" ht="13.8">
+    <row r="251" spans="10:10">
       <c r="J251" s="421"/>
     </row>
-    <row r="252" spans="10:10" ht="13.8">
+    <row r="252" spans="10:10">
       <c r="J252" s="421"/>
     </row>
-    <row r="253" spans="10:10" ht="13.8">
+    <row r="253" spans="10:10">
       <c r="J253" s="421"/>
     </row>
-    <row r="254" spans="10:10" ht="13.8">
+    <row r="254" spans="10:10">
       <c r="J254" s="421"/>
     </row>
-    <row r="255" spans="10:10" ht="13.8">
+    <row r="255" spans="10:10">
       <c r="J255" s="421"/>
     </row>
-    <row r="256" spans="10:10" ht="13.8">
+    <row r="256" spans="10:10">
       <c r="J256" s="421"/>
     </row>
-    <row r="257" spans="10:10" ht="13.8">
+    <row r="257" spans="10:10">
       <c r="J257" s="421"/>
     </row>
-    <row r="258" spans="10:10" ht="13.8">
+    <row r="258" spans="10:10">
       <c r="J258" s="421"/>
     </row>
-    <row r="259" spans="10:10" ht="13.8">
+    <row r="259" spans="10:10">
       <c r="J259" s="421"/>
     </row>
-    <row r="260" spans="10:10" ht="13.8">
+    <row r="260" spans="10:10">
       <c r="J260" s="421"/>
     </row>
-    <row r="261" spans="10:10" ht="13.8">
+    <row r="261" spans="10:10">
       <c r="J261" s="421"/>
     </row>
-    <row r="262" spans="10:10" ht="13.8">
+    <row r="262" spans="10:10">
       <c r="J262" s="421"/>
     </row>
-    <row r="263" spans="10:10" ht="13.8">
+    <row r="263" spans="10:10">
       <c r="J263" s="421"/>
     </row>
-    <row r="264" spans="10:10" ht="13.8">
+    <row r="264" spans="10:10">
       <c r="J264" s="421"/>
     </row>
-    <row r="265" spans="10:10" ht="13.8">
+    <row r="265" spans="10:10">
       <c r="J265" s="421"/>
     </row>
-    <row r="266" spans="10:10" ht="13.8">
+    <row r="266" spans="10:10">
       <c r="J266" s="421"/>
     </row>
-    <row r="267" spans="10:10" ht="13.8">
+    <row r="267" spans="10:10">
       <c r="J267" s="421"/>
     </row>
-    <row r="268" spans="10:10" ht="13.8">
+    <row r="268" spans="10:10">
       <c r="J268" s="421"/>
     </row>
-    <row r="269" spans="10:10" ht="13.8">
+    <row r="269" spans="10:10">
       <c r="J269" s="421"/>
     </row>
-    <row r="270" spans="10:10" ht="13.8">
+    <row r="270" spans="10:10">
       <c r="J270" s="421"/>
     </row>
-    <row r="271" spans="10:10" ht="13.8">
+    <row r="271" spans="10:10">
       <c r="J271" s="421"/>
     </row>
-    <row r="272" spans="10:10" ht="13.8">
+    <row r="272" spans="10:10">
       <c r="J272" s="421"/>
     </row>
-    <row r="273" spans="10:10" ht="13.8">
+    <row r="273" spans="10:10">
       <c r="J273" s="421"/>
     </row>
-    <row r="274" spans="10:10" ht="13.8">
+    <row r="274" spans="10:10">
       <c r="J274" s="421"/>
     </row>
-    <row r="275" spans="10:10" ht="13.8">
+    <row r="275" spans="10:10">
       <c r="J275" s="421"/>
     </row>
-    <row r="276" spans="10:10" ht="13.8">
+    <row r="276" spans="10:10">
       <c r="J276" s="421"/>
     </row>
-    <row r="277" spans="10:10" ht="13.8">
+    <row r="277" spans="10:10">
       <c r="J277" s="421"/>
     </row>
-    <row r="278" spans="10:10" ht="13.8">
+    <row r="278" spans="10:10">
       <c r="J278" s="421"/>
     </row>
-    <row r="279" spans="10:10" ht="13.8">
+    <row r="279" spans="10:10">
       <c r="J279" s="421"/>
     </row>
-    <row r="280" spans="10:10" ht="13.8">
+    <row r="280" spans="10:10">
       <c r="J280" s="421"/>
     </row>
-    <row r="281" spans="10:10" ht="13.8">
+    <row r="281" spans="10:10">
       <c r="J281" s="421"/>
     </row>
-    <row r="282" spans="10:10" ht="13.8">
+    <row r="282" spans="10:10">
       <c r="J282" s="421"/>
     </row>
-    <row r="283" spans="10:10" ht="13.8">
+    <row r="283" spans="10:10">
       <c r="J283" s="421"/>
     </row>
-    <row r="284" spans="10:10" ht="13.8">
+    <row r="284" spans="10:10">
       <c r="J284" s="421"/>
     </row>
-    <row r="285" spans="10:10" ht="13.8">
+    <row r="285" spans="10:10">
       <c r="J285" s="421"/>
     </row>
-    <row r="286" spans="10:10" ht="13.8">
+    <row r="286" spans="10:10">
       <c r="J286" s="421"/>
     </row>
-    <row r="287" spans="10:10" ht="13.8">
+    <row r="287" spans="10:10">
       <c r="J287" s="421"/>
     </row>
-    <row r="288" spans="10:10" ht="13.8">
+    <row r="288" spans="10:10">
       <c r="J288" s="421"/>
     </row>
-    <row r="289" spans="10:10" ht="13.8">
+    <row r="289" spans="10:10">
       <c r="J289" s="421"/>
     </row>
-    <row r="290" spans="10:10" ht="13.8">
+    <row r="290" spans="10:10">
       <c r="J290" s="421"/>
     </row>
-    <row r="291" spans="10:10" ht="13.8">
+    <row r="291" spans="10:10">
       <c r="J291" s="421"/>
     </row>
-    <row r="292" spans="10:10" ht="13.8">
+    <row r="292" spans="10:10">
       <c r="J292" s="421"/>
     </row>
-    <row r="293" spans="10:10" ht="13.8">
+    <row r="293" spans="10:10">
       <c r="J293" s="421"/>
     </row>
-    <row r="294" spans="10:10" ht="13.8">
+    <row r="294" spans="10:10">
       <c r="J294" s="421"/>
     </row>
-    <row r="295" spans="10:10" ht="13.8">
+    <row r="295" spans="10:10">
       <c r="J295" s="421"/>
     </row>
-    <row r="296" spans="10:10" ht="13.8">
+    <row r="296" spans="10:10">
       <c r="J296" s="421"/>
     </row>
-    <row r="297" spans="10:10" ht="13.8">
+    <row r="297" spans="10:10">
       <c r="J297" s="421"/>
     </row>
-    <row r="298" spans="10:10" ht="13.8">
+    <row r="298" spans="10:10">
       <c r="J298" s="421"/>
     </row>
-    <row r="299" spans="10:10" ht="13.8">
+    <row r="299" spans="10:10">
       <c r="J299" s="421"/>
     </row>
-    <row r="300" spans="10:10" ht="13.8">
+    <row r="300" spans="10:10">
       <c r="J300" s="421"/>
     </row>
-    <row r="301" spans="10:10" ht="13.8">
+    <row r="301" spans="10:10">
       <c r="J301" s="421"/>
     </row>
-    <row r="302" spans="10:10" ht="13.8">
+    <row r="302" spans="10:10">
       <c r="J302" s="421"/>
     </row>
-    <row r="303" spans="10:10" ht="13.8">
+    <row r="303" spans="10:10">
       <c r="J303" s="421"/>
     </row>
-    <row r="304" spans="10:10" ht="13.8">
+    <row r="304" spans="10:10">
       <c r="J304" s="421"/>
     </row>
-    <row r="305" spans="10:10" ht="13.8">
+    <row r="305" spans="10:10">
       <c r="J305" s="421"/>
     </row>
-    <row r="306" spans="10:10" ht="13.8">
+    <row r="306" spans="10:10">
       <c r="J306" s="421"/>
     </row>
-    <row r="307" spans="10:10" ht="13.8">
+    <row r="307" spans="10:10">
       <c r="J307" s="421"/>
     </row>
-    <row r="308" spans="10:10" ht="13.8">
+    <row r="308" spans="10:10">
       <c r="J308" s="421"/>
     </row>
-    <row r="309" spans="10:10" ht="13.8">
+    <row r="309" spans="10:10">
       <c r="J309" s="421"/>
     </row>
-    <row r="310" spans="10:10" ht="13.8">
+    <row r="310" spans="10:10">
       <c r="J310" s="421"/>
     </row>
-    <row r="311" spans="10:10" ht="13.8">
+    <row r="311" spans="10:10">
       <c r="J311" s="421"/>
     </row>
-    <row r="312" spans="10:10" ht="13.8">
+    <row r="312" spans="10:10">
       <c r="J312" s="421"/>
     </row>
-    <row r="313" spans="10:10" ht="13.8">
+    <row r="313" spans="10:10">
       <c r="J313" s="421"/>
     </row>
-    <row r="314" spans="10:10" ht="13.8">
+    <row r="314" spans="10:10">
       <c r="J314" s="421"/>
     </row>
-    <row r="315" spans="10:10" ht="13.8">
+    <row r="315" spans="10:10">
       <c r="J315" s="421"/>
     </row>
-    <row r="316" spans="10:10" ht="13.8">
+    <row r="316" spans="10:10">
       <c r="J316" s="421"/>
     </row>
-    <row r="317" spans="10:10" ht="13.8">
+    <row r="317" spans="10:10">
       <c r="J317" s="421"/>
     </row>
-    <row r="318" spans="10:10" ht="13.8">
+    <row r="318" spans="10:10">
       <c r="J318" s="421"/>
     </row>
   </sheetData>
@@ -45261,17 +45261,17 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="48.6640625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="33.6640625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="35.109375" style="5" customWidth="1"/>
-    <col min="5" max="6" width="33.6640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="31.6640625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="37.6640625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" style="7" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="7"/>
+    <col min="1" max="1" width="18.140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="48.7109375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="5" customWidth="1"/>
+    <col min="5" max="6" width="33.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="31.7109375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="37.7109375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="7" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -45371,7 +45371,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="82.8">
+    <row r="8" spans="1:9" ht="76.5">
       <c r="A8" s="11" t="s">
         <v>1072</v>
       </c>
@@ -45388,7 +45388,7 @@
       </c>
       <c r="I8" s="421"/>
     </row>
-    <row r="9" spans="1:9" ht="110.4">
+    <row r="9" spans="1:9" ht="102">
       <c r="A9" s="11" t="s">
         <v>1075</v>
       </c>
@@ -45406,7 +45406,7 @@
       </c>
       <c r="I9" s="421"/>
     </row>
-    <row r="10" spans="1:9" ht="41.4">
+    <row r="10" spans="1:9" ht="38.25">
       <c r="A10" s="11" t="s">
         <v>1078</v>
       </c>
@@ -45423,7 +45423,7 @@
       </c>
       <c r="I10" s="421"/>
     </row>
-    <row r="11" spans="1:9" ht="69">
+    <row r="11" spans="1:9" ht="63.75">
       <c r="A11" s="11" t="s">
         <v>1081</v>
       </c>
@@ -45440,7 +45440,7 @@
       </c>
       <c r="I11" s="421"/>
     </row>
-    <row r="12" spans="1:9" ht="69">
+    <row r="12" spans="1:9" ht="63.75">
       <c r="A12" s="11" t="s">
         <v>1084</v>
       </c>
@@ -45457,7 +45457,7 @@
       </c>
       <c r="I12" s="421"/>
     </row>
-    <row r="13" spans="1:9" ht="124.2">
+    <row r="13" spans="1:9" ht="114.75">
       <c r="A13" s="11" t="s">
         <v>1087</v>
       </c>
@@ -45474,7 +45474,7 @@
       </c>
       <c r="I13" s="421"/>
     </row>
-    <row r="14" spans="1:9" ht="55.2">
+    <row r="14" spans="1:9" ht="51">
       <c r="A14" s="11" t="s">
         <v>1090</v>
       </c>
@@ -45491,7 +45491,7 @@
       </c>
       <c r="I14" s="421"/>
     </row>
-    <row r="15" spans="1:9" ht="96.6">
+    <row r="15" spans="1:9" ht="89.25">
       <c r="A15" s="11" t="s">
         <v>1093</v>
       </c>
@@ -45508,7 +45508,7 @@
       </c>
       <c r="I15" s="421"/>
     </row>
-    <row r="16" spans="1:9" ht="151.80000000000001">
+    <row r="16" spans="1:9" ht="140.25">
       <c r="A16" s="11" t="s">
         <v>1096</v>
       </c>
@@ -45525,7 +45525,7 @@
       </c>
       <c r="I16" s="421"/>
     </row>
-    <row r="17" spans="1:9" ht="82.8">
+    <row r="17" spans="1:9" ht="76.5">
       <c r="A17" s="11" t="s">
         <v>1099</v>
       </c>
@@ -45543,7 +45543,7 @@
       </c>
       <c r="I17" s="421"/>
     </row>
-    <row r="18" spans="1:9" ht="82.8">
+    <row r="18" spans="1:9" ht="76.5">
       <c r="A18" s="11" t="s">
         <v>1103</v>
       </c>
@@ -45564,7 +45564,7 @@
       </c>
       <c r="I18" s="421"/>
     </row>
-    <row r="19" spans="1:9" ht="82.8">
+    <row r="19" spans="1:9" ht="76.5">
       <c r="A19" s="11" t="s">
         <v>1107</v>
       </c>
@@ -45585,7 +45585,7 @@
       </c>
       <c r="I19" s="421"/>
     </row>
-    <row r="20" spans="1:9" ht="124.2">
+    <row r="20" spans="1:9" ht="114.75">
       <c r="A20" s="11" t="s">
         <v>1109</v>
       </c>
@@ -45603,7 +45603,7 @@
       </c>
       <c r="I20" s="421"/>
     </row>
-    <row r="21" spans="1:9" ht="124.2">
+    <row r="21" spans="1:9" ht="114.75">
       <c r="A21" s="11" t="s">
         <v>1112</v>
       </c>
@@ -45624,7 +45624,7 @@
       </c>
       <c r="I21" s="421"/>
     </row>
-    <row r="22" spans="1:9" ht="138">
+    <row r="22" spans="1:9" ht="127.5">
       <c r="A22" s="11" t="s">
         <v>1116</v>
       </c>
@@ -45645,7 +45645,7 @@
       </c>
       <c r="I22" s="421"/>
     </row>
-    <row r="23" spans="1:9" ht="138">
+    <row r="23" spans="1:9" ht="127.5">
       <c r="A23" s="11" t="s">
         <v>1119</v>
       </c>
@@ -45663,7 +45663,7 @@
       </c>
       <c r="I23" s="421"/>
     </row>
-    <row r="24" spans="1:9" ht="138">
+    <row r="24" spans="1:9" ht="127.5">
       <c r="A24" s="11" t="s">
         <v>1121</v>
       </c>
@@ -45683,7 +45683,7 @@
       </c>
       <c r="I24" s="421"/>
     </row>
-    <row r="25" spans="1:9" ht="138">
+    <row r="25" spans="1:9" ht="127.5">
       <c r="A25" s="11" t="s">
         <v>1123</v>
       </c>
@@ -45703,7 +45703,7 @@
       </c>
       <c r="I25" s="421"/>
     </row>
-    <row r="26" spans="1:9" ht="110.4">
+    <row r="26" spans="1:9" ht="102">
       <c r="A26" s="11" t="s">
         <v>1126</v>
       </c>
@@ -45721,7 +45721,7 @@
       </c>
       <c r="I26" s="421"/>
     </row>
-    <row r="27" spans="1:9" ht="110.4">
+    <row r="27" spans="1:9" ht="102">
       <c r="A27" s="11" t="s">
         <v>1129</v>
       </c>
@@ -45741,7 +45741,7 @@
       </c>
       <c r="I27" s="421"/>
     </row>
-    <row r="28" spans="1:9" ht="110.4">
+    <row r="28" spans="1:9" ht="102">
       <c r="A28" s="11" t="s">
         <v>1131</v>
       </c>
@@ -45761,7 +45761,7 @@
       </c>
       <c r="I28" s="421"/>
     </row>
-    <row r="29" spans="1:9" ht="55.2">
+    <row r="29" spans="1:9" ht="51">
       <c r="A29" s="11" t="s">
         <v>1132</v>
       </c>
@@ -45778,7 +45778,7 @@
       </c>
       <c r="I29" s="421"/>
     </row>
-    <row r="30" spans="1:9" ht="82.8">
+    <row r="30" spans="1:9" ht="76.5">
       <c r="A30" s="11" t="s">
         <v>1135</v>
       </c>
@@ -45795,7 +45795,7 @@
       </c>
       <c r="I30" s="421"/>
     </row>
-    <row r="31" spans="1:9" ht="82.8">
+    <row r="31" spans="1:9" ht="76.5">
       <c r="A31" s="11" t="s">
         <v>1138</v>
       </c>
@@ -45812,7 +45812,7 @@
       </c>
       <c r="I31" s="421"/>
     </row>
-    <row r="32" spans="1:9" ht="110.4">
+    <row r="32" spans="1:9" ht="102">
       <c r="A32" s="11" t="s">
         <v>1141</v>
       </c>
@@ -45832,7 +45832,7 @@
       </c>
       <c r="I32" s="421"/>
     </row>
-    <row r="33" spans="1:9" ht="69">
+    <row r="33" spans="1:9" ht="63.75">
       <c r="A33" s="11" t="s">
         <v>1146</v>
       </c>
@@ -45851,7 +45851,7 @@
       </c>
       <c r="I33" s="421"/>
     </row>
-    <row r="34" spans="1:9" ht="303.60000000000002">
+    <row r="34" spans="1:9" ht="280.5">
       <c r="A34" s="11" t="s">
         <v>1148</v>
       </c>
@@ -45872,7 +45872,7 @@
       </c>
       <c r="I34" s="421"/>
     </row>
-    <row r="35" spans="1:9" ht="41.4">
+    <row r="35" spans="1:9" ht="38.25">
       <c r="A35" s="11" t="s">
         <v>1152</v>
       </c>
@@ -45891,7 +45891,7 @@
       </c>
       <c r="I35" s="421"/>
     </row>
-    <row r="36" spans="1:9" ht="110.4">
+    <row r="36" spans="1:9" ht="102">
       <c r="A36" s="11" t="s">
         <v>1155</v>
       </c>
@@ -45912,7 +45912,7 @@
       </c>
       <c r="I36" s="421"/>
     </row>
-    <row r="37" spans="1:9" ht="82.8">
+    <row r="37" spans="1:9" ht="76.5">
       <c r="A37" s="11" t="s">
         <v>1160</v>
       </c>
@@ -45931,7 +45931,7 @@
       </c>
       <c r="I37" s="421"/>
     </row>
-    <row r="38" spans="1:9" ht="82.8">
+    <row r="38" spans="1:9" ht="76.5">
       <c r="A38" s="11" t="s">
         <v>1162</v>
       </c>
@@ -45952,7 +45952,7 @@
       </c>
       <c r="I38" s="421"/>
     </row>
-    <row r="39" spans="1:9" ht="41.4">
+    <row r="39" spans="1:9" ht="38.25">
       <c r="A39" s="11" t="s">
         <v>1166</v>
       </c>
@@ -45973,7 +45973,7 @@
       </c>
       <c r="I39" s="421"/>
     </row>
-    <row r="40" spans="1:9" ht="69">
+    <row r="40" spans="1:9" ht="63.75">
       <c r="A40" s="11" t="s">
         <v>1169</v>
       </c>
@@ -45990,7 +45990,7 @@
       </c>
       <c r="I40" s="421"/>
     </row>
-    <row r="41" spans="1:9" ht="41.4">
+    <row r="41" spans="1:9" ht="38.25">
       <c r="A41" s="11" t="s">
         <v>1172</v>
       </c>
@@ -46009,7 +46009,7 @@
       </c>
       <c r="I41" s="421"/>
     </row>
-    <row r="42" spans="1:9" ht="27.6">
+    <row r="42" spans="1:9" ht="25.5">
       <c r="A42" s="11" t="s">
         <v>1175</v>
       </c>
@@ -46026,7 +46026,7 @@
       </c>
       <c r="I42" s="421"/>
     </row>
-    <row r="43" spans="1:9" ht="110.4">
+    <row r="43" spans="1:9" ht="102">
       <c r="A43" s="11" t="s">
         <v>1178</v>
       </c>
@@ -46047,7 +46047,7 @@
       </c>
       <c r="I43" s="421"/>
     </row>
-    <row r="44" spans="1:9" ht="96.6">
+    <row r="44" spans="1:9" ht="89.25">
       <c r="A44" s="11" t="s">
         <v>1182</v>
       </c>
@@ -46157,7 +46157,7 @@
       </c>
       <c r="I49" s="421"/>
     </row>
-    <row r="50" spans="1:9" ht="41.4">
+    <row r="50" spans="1:9" ht="38.25">
       <c r="A50" s="11" t="s">
         <v>1198</v>
       </c>
@@ -46172,7 +46172,7 @@
       <c r="H50" s="286"/>
       <c r="I50" s="421"/>
     </row>
-    <row r="51" spans="1:9" ht="69">
+    <row r="51" spans="1:9" ht="63.75">
       <c r="A51" s="11" t="s">
         <v>1199</v>
       </c>
@@ -46261,7 +46261,7 @@
       <c r="H55" s="449"/>
       <c r="I55" s="421"/>
     </row>
-    <row r="56" spans="1:9" ht="82.8">
+    <row r="56" spans="1:9" ht="76.5">
       <c r="A56" s="11" t="s">
         <v>1214</v>
       </c>
@@ -46282,7 +46282,7 @@
       </c>
       <c r="I56" s="421"/>
     </row>
-    <row r="57" spans="1:9" ht="82.8">
+    <row r="57" spans="1:9" ht="76.5">
       <c r="A57" s="11" t="s">
         <v>1217</v>
       </c>
@@ -46302,7 +46302,7 @@
       </c>
       <c r="I57" s="421"/>
     </row>
-    <row r="58" spans="1:9" ht="151.80000000000001">
+    <row r="58" spans="1:9" ht="140.25">
       <c r="A58" s="11" t="s">
         <v>1219</v>
       </c>
@@ -46319,7 +46319,7 @@
       </c>
       <c r="I58" s="421"/>
     </row>
-    <row r="59" spans="1:9" ht="151.80000000000001">
+    <row r="59" spans="1:9" ht="140.25">
       <c r="A59" s="11" t="s">
         <v>1222</v>
       </c>
@@ -46336,7 +46336,7 @@
       </c>
       <c r="I59" s="421"/>
     </row>
-    <row r="60" spans="1:9" ht="151.80000000000001">
+    <row r="60" spans="1:9" ht="140.25">
       <c r="A60" s="11" t="s">
         <v>1225</v>
       </c>
@@ -46353,7 +46353,7 @@
       </c>
       <c r="I60" s="421"/>
     </row>
-    <row r="61" spans="1:9" ht="151.80000000000001">
+    <row r="61" spans="1:9" ht="140.25">
       <c r="A61" s="11" t="s">
         <v>1228</v>
       </c>
@@ -46370,7 +46370,7 @@
       </c>
       <c r="I61" s="421"/>
     </row>
-    <row r="62" spans="1:9" ht="151.80000000000001">
+    <row r="62" spans="1:9" ht="140.25">
       <c r="A62" s="11" t="s">
         <v>1231</v>
       </c>
@@ -46387,7 +46387,7 @@
       </c>
       <c r="I62" s="421"/>
     </row>
-    <row r="63" spans="1:9" ht="151.80000000000001">
+    <row r="63" spans="1:9" ht="140.25">
       <c r="A63" s="11" t="s">
         <v>1234</v>
       </c>
@@ -46404,7 +46404,7 @@
       </c>
       <c r="I63" s="421"/>
     </row>
-    <row r="64" spans="1:9" ht="27.6">
+    <row r="64" spans="1:9" ht="25.5">
       <c r="A64" s="11" t="s">
         <v>1236</v>
       </c>
@@ -46421,7 +46421,7 @@
       </c>
       <c r="I64" s="421"/>
     </row>
-    <row r="65" spans="1:9" ht="69">
+    <row r="65" spans="1:9" ht="63.75">
       <c r="A65" s="11" t="s">
         <v>1239</v>
       </c>
@@ -46438,7 +46438,7 @@
       </c>
       <c r="I65" s="421"/>
     </row>
-    <row r="66" spans="1:9" ht="55.2">
+    <row r="66" spans="1:9" ht="51">
       <c r="A66" s="11" t="s">
         <v>1242</v>
       </c>
@@ -46455,7 +46455,7 @@
       </c>
       <c r="I66" s="421"/>
     </row>
-    <row r="67" spans="1:9" ht="69">
+    <row r="67" spans="1:9" ht="63.75">
       <c r="A67" s="11" t="s">
         <v>1245</v>
       </c>
@@ -46472,7 +46472,7 @@
       </c>
       <c r="I67" s="421"/>
     </row>
-    <row r="68" spans="1:9" ht="55.2">
+    <row r="68" spans="1:9" ht="51">
       <c r="A68" s="11" t="s">
         <v>1248</v>
       </c>
@@ -46489,7 +46489,7 @@
       </c>
       <c r="I68" s="421"/>
     </row>
-    <row r="69" spans="1:9" ht="82.8">
+    <row r="69" spans="1:9" ht="76.5">
       <c r="A69" s="11" t="s">
         <v>1251</v>
       </c>
@@ -46506,7 +46506,7 @@
       </c>
       <c r="I69" s="421"/>
     </row>
-    <row r="70" spans="1:9" ht="110.4">
+    <row r="70" spans="1:9" ht="102">
       <c r="A70" s="11" t="s">
         <v>1254</v>
       </c>
@@ -46529,7 +46529,7 @@
       </c>
       <c r="I70" s="421"/>
     </row>
-    <row r="71" spans="1:9" ht="41.4">
+    <row r="71" spans="1:9" ht="38.25">
       <c r="A71" s="11" t="s">
         <v>1258</v>
       </c>
@@ -46660,7 +46660,7 @@
       <c r="H77" s="445"/>
       <c r="I77" s="421"/>
     </row>
-    <row r="78" spans="1:9" ht="96.6">
+    <row r="78" spans="1:9" ht="89.25">
       <c r="A78" s="11" t="s">
         <v>1271</v>
       </c>
@@ -46683,7 +46683,7 @@
       </c>
       <c r="I78" s="421"/>
     </row>
-    <row r="79" spans="1:9" ht="41.4">
+    <row r="79" spans="1:9" ht="38.25">
       <c r="A79" s="11" t="s">
         <v>1274</v>
       </c>
@@ -46799,7 +46799,7 @@
       </c>
       <c r="I84" s="421"/>
     </row>
-    <row r="85" spans="1:9" ht="41.4">
+    <row r="85" spans="1:9" ht="38.25">
       <c r="A85" s="11" t="s">
         <v>1283</v>
       </c>
@@ -46814,7 +46814,7 @@
       <c r="H85" s="445"/>
       <c r="I85" s="421"/>
     </row>
-    <row r="86" spans="1:9" ht="110.4">
+    <row r="86" spans="1:9" ht="102">
       <c r="A86" s="11" t="s">
         <v>1285</v>
       </c>
@@ -46839,7 +46839,7 @@
       </c>
       <c r="I86" s="421"/>
     </row>
-    <row r="87" spans="1:9" ht="69">
+    <row r="87" spans="1:9" ht="63.75">
       <c r="A87" s="11" t="s">
         <v>1288</v>
       </c>
@@ -46961,7 +46961,7 @@
       </c>
       <c r="I92" s="421"/>
     </row>
-    <row r="93" spans="1:9" ht="41.4">
+    <row r="93" spans="1:9" ht="38.25">
       <c r="A93" s="11" t="s">
         <v>1297</v>
       </c>
@@ -46976,7 +46976,7 @@
       <c r="H93" s="445"/>
       <c r="I93" s="421"/>
     </row>
-    <row r="94" spans="1:9" ht="110.4">
+    <row r="94" spans="1:9" ht="102">
       <c r="A94" s="11" t="s">
         <v>1298</v>
       </c>
@@ -47001,7 +47001,7 @@
       </c>
       <c r="I94" s="421"/>
     </row>
-    <row r="95" spans="1:9" ht="69">
+    <row r="95" spans="1:9" ht="63.75">
       <c r="A95" s="11" t="s">
         <v>1300</v>
       </c>
@@ -47123,7 +47123,7 @@
       </c>
       <c r="I100" s="421"/>
     </row>
-    <row r="101" spans="1:9" ht="41.4">
+    <row r="101" spans="1:9" ht="38.25">
       <c r="A101" s="11" t="s">
         <v>1307</v>
       </c>
@@ -47138,7 +47138,7 @@
       <c r="H101" s="445"/>
       <c r="I101" s="421"/>
     </row>
-    <row r="102" spans="1:9" ht="179.4">
+    <row r="102" spans="1:9" ht="165.75">
       <c r="A102" s="11" t="s">
         <v>1308</v>
       </c>
@@ -47163,7 +47163,7 @@
       </c>
       <c r="I102" s="421"/>
     </row>
-    <row r="103" spans="1:9" ht="138">
+    <row r="103" spans="1:9" ht="127.5">
       <c r="A103" s="11" t="s">
         <v>1313</v>
       </c>
@@ -47285,7 +47285,7 @@
       </c>
       <c r="I108" s="421"/>
     </row>
-    <row r="109" spans="1:9" ht="41.4">
+    <row r="109" spans="1:9" ht="38.25">
       <c r="A109" s="11" t="s">
         <v>1322</v>
       </c>
@@ -47300,7 +47300,7 @@
       <c r="H109" s="468"/>
       <c r="I109" s="421"/>
     </row>
-    <row r="110" spans="1:9" ht="138">
+    <row r="110" spans="1:9" ht="127.5">
       <c r="A110" s="11" t="s">
         <v>1323</v>
       </c>
@@ -47323,7 +47323,7 @@
       </c>
       <c r="I110" s="421"/>
     </row>
-    <row r="111" spans="1:9" ht="96.6">
+    <row r="111" spans="1:9" ht="89.25">
       <c r="A111" s="11" t="s">
         <v>1325</v>
       </c>
@@ -47439,7 +47439,7 @@
       </c>
       <c r="I116" s="421"/>
     </row>
-    <row r="117" spans="1:9" ht="41.4">
+    <row r="117" spans="1:9" ht="38.25">
       <c r="A117" s="11" t="s">
         <v>1334</v>
       </c>
@@ -47477,7 +47477,7 @@
       </c>
       <c r="I118" s="421"/>
     </row>
-    <row r="119" spans="1:9" ht="110.4">
+    <row r="119" spans="1:9" ht="102">
       <c r="A119" s="11" t="s">
         <v>1337</v>
       </c>
@@ -47593,7 +47593,7 @@
       </c>
       <c r="I124" s="421"/>
     </row>
-    <row r="125" spans="1:9" ht="41.4">
+    <row r="125" spans="1:9" ht="38.25">
       <c r="A125" s="11" t="s">
         <v>1345</v>
       </c>
@@ -47608,7 +47608,7 @@
       <c r="H125" s="468"/>
       <c r="I125" s="421"/>
     </row>
-    <row r="126" spans="1:9" ht="41.4">
+    <row r="126" spans="1:9" ht="38.25">
       <c r="A126" s="11" t="s">
         <v>1346</v>
       </c>
@@ -47629,7 +47629,7 @@
       </c>
       <c r="I126" s="421"/>
     </row>
-    <row r="127" spans="1:9" ht="41.4">
+    <row r="127" spans="1:9" ht="38.25">
       <c r="A127" s="11" t="s">
         <v>1349</v>
       </c>
@@ -47716,7 +47716,7 @@
       <c r="H131" s="445"/>
       <c r="I131" s="421"/>
     </row>
-    <row r="132" spans="1:9" ht="27.6">
+    <row r="132" spans="1:9" ht="25.5">
       <c r="A132" s="11" t="s">
         <v>1354</v>
       </c>
@@ -47735,7 +47735,7 @@
       <c r="H132" s="58"/>
       <c r="I132" s="421"/>
     </row>
-    <row r="133" spans="1:9" ht="41.4">
+    <row r="133" spans="1:9" ht="38.25">
       <c r="A133" s="11" t="s">
         <v>1355</v>
       </c>
@@ -47750,7 +47750,7 @@
       <c r="H133" s="58"/>
       <c r="I133" s="421"/>
     </row>
-    <row r="134" spans="1:9" ht="41.4">
+    <row r="134" spans="1:9" ht="38.25">
       <c r="A134" s="11" t="s">
         <v>1356</v>
       </c>
@@ -47767,7 +47767,7 @@
       </c>
       <c r="I134" s="421"/>
     </row>
-    <row r="135" spans="1:9" ht="69">
+    <row r="135" spans="1:9" ht="63.75">
       <c r="A135" s="11" t="s">
         <v>1359</v>
       </c>
@@ -47784,7 +47784,7 @@
       </c>
       <c r="I135" s="421"/>
     </row>
-    <row r="136" spans="1:9" ht="69">
+    <row r="136" spans="1:9" ht="63.75">
       <c r="A136" s="11" t="s">
         <v>1362</v>
       </c>
@@ -47818,7 +47818,7 @@
       </c>
       <c r="I137" s="421"/>
     </row>
-    <row r="138" spans="1:9" ht="55.2">
+    <row r="138" spans="1:9" ht="51">
       <c r="A138" s="11" t="s">
         <v>1368</v>
       </c>
@@ -47835,7 +47835,7 @@
       </c>
       <c r="I138" s="421"/>
     </row>
-    <row r="139" spans="1:9" ht="96.6">
+    <row r="139" spans="1:9" ht="89.25">
       <c r="A139" s="11" t="s">
         <v>1371</v>
       </c>
@@ -47856,7 +47856,7 @@
       </c>
       <c r="I139" s="421"/>
     </row>
-    <row r="140" spans="1:9" ht="55.2">
+    <row r="140" spans="1:9" ht="51">
       <c r="A140" s="11" t="s">
         <v>1374</v>
       </c>
@@ -47966,7 +47966,7 @@
       </c>
       <c r="I145" s="421"/>
     </row>
-    <row r="146" spans="1:9" ht="41.4">
+    <row r="146" spans="1:9" ht="38.25">
       <c r="A146" s="11" t="s">
         <v>1383</v>
       </c>
@@ -47981,7 +47981,7 @@
       <c r="H146" s="459"/>
       <c r="I146" s="421"/>
     </row>
-    <row r="147" spans="1:9" ht="110.4">
+    <row r="147" spans="1:9" ht="102">
       <c r="A147" s="11" t="s">
         <v>1384</v>
       </c>
@@ -48002,7 +48002,7 @@
       </c>
       <c r="I147" s="421"/>
     </row>
-    <row r="148" spans="1:9" ht="69">
+    <row r="148" spans="1:9" ht="63.75">
       <c r="A148" s="11" t="s">
         <v>1387</v>
       </c>
@@ -48112,7 +48112,7 @@
       </c>
       <c r="I153" s="421"/>
     </row>
-    <row r="154" spans="1:9" ht="41.4">
+    <row r="154" spans="1:9" ht="38.25">
       <c r="A154" s="11" t="s">
         <v>1397</v>
       </c>
@@ -48127,7 +48127,7 @@
       <c r="H154" s="464"/>
       <c r="I154" s="421"/>
     </row>
-    <row r="155" spans="1:9" ht="55.2">
+    <row r="155" spans="1:9" ht="51">
       <c r="A155" s="11" t="s">
         <v>1398</v>
       </c>
@@ -48144,7 +48144,7 @@
       </c>
       <c r="I155" s="421"/>
     </row>
-    <row r="156" spans="1:9" ht="124.2">
+    <row r="156" spans="1:9" ht="114.75">
       <c r="A156" s="11" t="s">
         <v>1401</v>
       </c>
@@ -48161,7 +48161,7 @@
       </c>
       <c r="I156" s="421"/>
     </row>
-    <row r="157" spans="1:9" ht="55.2">
+    <row r="157" spans="1:9" ht="51">
       <c r="A157" s="11" t="s">
         <v>1404</v>
       </c>
@@ -48178,7 +48178,7 @@
       </c>
       <c r="I157" s="421"/>
     </row>
-    <row r="158" spans="1:9" ht="55.2">
+    <row r="158" spans="1:9" ht="51">
       <c r="A158" s="11" t="s">
         <v>1407</v>
       </c>
@@ -48195,7 +48195,7 @@
       </c>
       <c r="I158" s="421"/>
     </row>
-    <row r="159" spans="1:9" ht="165.6">
+    <row r="159" spans="1:9" ht="153">
       <c r="A159" s="11" t="s">
         <v>1410</v>
       </c>
@@ -48212,7 +48212,7 @@
       </c>
       <c r="I159" s="421"/>
     </row>
-    <row r="160" spans="1:9" ht="96.6">
+    <row r="160" spans="1:9" ht="89.25">
       <c r="A160" s="11" t="s">
         <v>1413</v>
       </c>
@@ -48229,7 +48229,7 @@
       </c>
       <c r="I160" s="421"/>
     </row>
-    <row r="161" spans="1:9" ht="96.6">
+    <row r="161" spans="1:9" ht="89.25">
       <c r="A161" s="11" t="s">
         <v>1416</v>
       </c>
@@ -48246,7 +48246,7 @@
       </c>
       <c r="I161" s="421"/>
     </row>
-    <row r="162" spans="1:9" ht="96.6">
+    <row r="162" spans="1:9" ht="89.25">
       <c r="A162" s="11" t="s">
         <v>1419</v>
       </c>
@@ -48263,7 +48263,7 @@
       </c>
       <c r="I162" s="421"/>
     </row>
-    <row r="163" spans="1:9" ht="55.2">
+    <row r="163" spans="1:9" ht="51">
       <c r="A163" s="11" t="s">
         <v>1422</v>
       </c>
@@ -48280,7 +48280,7 @@
       </c>
       <c r="I163" s="421"/>
     </row>
-    <row r="164" spans="1:9" ht="124.2">
+    <row r="164" spans="1:9" ht="114.75">
       <c r="A164" s="11" t="s">
         <v>1425</v>
       </c>
@@ -48297,7 +48297,7 @@
       </c>
       <c r="I164" s="421"/>
     </row>
-    <row r="165" spans="1:9" ht="69">
+    <row r="165" spans="1:9" ht="63.75">
       <c r="A165" s="11" t="s">
         <v>1428</v>
       </c>
@@ -48314,7 +48314,7 @@
       </c>
       <c r="I165" s="421"/>
     </row>
-    <row r="166" spans="1:9" ht="27.6">
+    <row r="166" spans="1:9" ht="25.5">
       <c r="A166" s="11" t="s">
         <v>1431</v>
       </c>
@@ -48365,7 +48365,7 @@
       </c>
       <c r="I168" s="421"/>
     </row>
-    <row r="169" spans="1:9" ht="55.2">
+    <row r="169" spans="1:9" ht="51">
       <c r="A169" s="11" t="s">
         <v>1440</v>
       </c>
@@ -48382,7 +48382,7 @@
       </c>
       <c r="I169" s="421"/>
     </row>
-    <row r="170" spans="1:9" ht="124.2">
+    <row r="170" spans="1:9" ht="114.75">
       <c r="A170" s="11" t="s">
         <v>1443</v>
       </c>
@@ -48399,7 +48399,7 @@
       </c>
       <c r="I170" s="421"/>
     </row>
-    <row r="171" spans="1:9" ht="55.2">
+    <row r="171" spans="1:9" ht="51">
       <c r="A171" s="11" t="s">
         <v>1446</v>
       </c>
@@ -48416,7 +48416,7 @@
       </c>
       <c r="I171" s="421"/>
     </row>
-    <row r="172" spans="1:9" ht="96.6">
+    <row r="172" spans="1:9" ht="89.25">
       <c r="A172" s="11" t="s">
         <v>1449</v>
       </c>
@@ -48433,7 +48433,7 @@
       </c>
       <c r="I172" s="421"/>
     </row>
-    <row r="173" spans="1:9" ht="82.8">
+    <row r="173" spans="1:9" ht="76.5">
       <c r="A173" s="11" t="s">
         <v>1452</v>
       </c>
@@ -48450,7 +48450,7 @@
       </c>
       <c r="I173" s="421"/>
     </row>
-    <row r="174" spans="1:9" ht="55.2">
+    <row r="174" spans="1:9" ht="51">
       <c r="A174" s="11" t="s">
         <v>1455</v>
       </c>
@@ -48467,7 +48467,7 @@
       </c>
       <c r="I174" s="421"/>
     </row>
-    <row r="175" spans="1:9" ht="138">
+    <row r="175" spans="1:9" ht="127.5">
       <c r="A175" s="11" t="s">
         <v>1458</v>
       </c>
@@ -48484,7 +48484,7 @@
       </c>
       <c r="I175" s="421"/>
     </row>
-    <row r="176" spans="1:9" ht="41.4">
+    <row r="176" spans="1:9" ht="38.25">
       <c r="A176" s="11" t="s">
         <v>1461</v>
       </c>
@@ -48501,7 +48501,7 @@
       </c>
       <c r="I176" s="421"/>
     </row>
-    <row r="177" spans="1:9" ht="69">
+    <row r="177" spans="1:9" ht="63.75">
       <c r="A177" s="11" t="s">
         <v>1464</v>
       </c>
@@ -48518,7 +48518,7 @@
       </c>
       <c r="I177" s="421"/>
     </row>
-    <row r="178" spans="1:9" ht="55.2">
+    <row r="178" spans="1:9" ht="51">
       <c r="A178" s="11" t="s">
         <v>1467</v>
       </c>
@@ -48535,7 +48535,7 @@
       </c>
       <c r="I178" s="421"/>
     </row>
-    <row r="179" spans="1:9" ht="151.80000000000001">
+    <row r="179" spans="1:9" ht="140.25">
       <c r="A179" s="11" t="s">
         <v>1470</v>
       </c>
@@ -48569,7 +48569,7 @@
       </c>
       <c r="I180" s="421"/>
     </row>
-    <row r="181" spans="1:9" ht="41.4">
+    <row r="181" spans="1:9" ht="38.25">
       <c r="A181" s="11" t="s">
         <v>1476</v>
       </c>
@@ -48601,7 +48601,7 @@
       <c r="H182" s="65"/>
       <c r="I182" s="421"/>
     </row>
-    <row r="183" spans="1:9" ht="82.8">
+    <row r="183" spans="1:9" ht="76.5">
       <c r="A183" s="11" t="s">
         <v>1481</v>
       </c>
@@ -48618,7 +48618,7 @@
       </c>
       <c r="I183" s="421"/>
     </row>
-    <row r="184" spans="1:9" ht="82.8">
+    <row r="184" spans="1:9" ht="76.5">
       <c r="A184" s="11" t="s">
         <v>1484</v>
       </c>
@@ -48635,7 +48635,7 @@
       </c>
       <c r="I184" s="421"/>
     </row>
-    <row r="185" spans="1:9" ht="138">
+    <row r="185" spans="1:9" ht="127.5">
       <c r="A185" s="11" t="s">
         <v>1487</v>
       </c>
@@ -48652,7 +48652,7 @@
       </c>
       <c r="I185" s="421"/>
     </row>
-    <row r="186" spans="1:9" ht="96.6">
+    <row r="186" spans="1:9" ht="89.25">
       <c r="A186" s="11" t="s">
         <v>1490</v>
       </c>
@@ -48684,7 +48684,7 @@
       <c r="H187" s="65"/>
       <c r="I187" s="421"/>
     </row>
-    <row r="188" spans="1:9" ht="69">
+    <row r="188" spans="1:9" ht="63.75">
       <c r="A188" s="11" t="s">
         <v>1495</v>
       </c>
@@ -48701,7 +48701,7 @@
       </c>
       <c r="I188" s="421"/>
     </row>
-    <row r="189" spans="1:9" ht="69">
+    <row r="189" spans="1:9" ht="63.75">
       <c r="A189" s="11" t="s">
         <v>1498</v>
       </c>
@@ -48718,7 +48718,7 @@
       </c>
       <c r="I189" s="421"/>
     </row>
-    <row r="190" spans="1:9" ht="69">
+    <row r="190" spans="1:9" ht="63.75">
       <c r="A190" s="11" t="s">
         <v>1501</v>
       </c>
@@ -48735,7 +48735,7 @@
       </c>
       <c r="I190" s="421"/>
     </row>
-    <row r="191" spans="1:9" ht="69">
+    <row r="191" spans="1:9" ht="63.75">
       <c r="A191" s="11" t="s">
         <v>1504</v>
       </c>
@@ -48752,7 +48752,7 @@
       </c>
       <c r="I191" s="421"/>
     </row>
-    <row r="192" spans="1:9" ht="27.6">
+    <row r="192" spans="1:9" ht="25.5">
       <c r="A192" s="11" t="s">
         <v>1506</v>
       </c>
@@ -48769,7 +48769,7 @@
       </c>
       <c r="I192" s="421"/>
     </row>
-    <row r="193" spans="1:10" ht="27.6">
+    <row r="193" spans="1:10" ht="25.5">
       <c r="A193" s="11" t="s">
         <v>1509</v>
       </c>
@@ -48786,7 +48786,7 @@
       </c>
       <c r="I193" s="421"/>
     </row>
-    <row r="194" spans="1:10" ht="69">
+    <row r="194" spans="1:10" ht="76.5">
       <c r="A194" s="11" t="s">
         <v>1512</v>
       </c>
@@ -48803,7 +48803,7 @@
       </c>
       <c r="I194" s="421"/>
     </row>
-    <row r="195" spans="1:10" ht="69">
+    <row r="195" spans="1:10" ht="63.75">
       <c r="A195" s="11" t="s">
         <v>1515</v>
       </c>
@@ -48820,7 +48820,7 @@
       </c>
       <c r="I195" s="421"/>
     </row>
-    <row r="196" spans="1:10" s="31" customFormat="1" ht="69">
+    <row r="196" spans="1:10" s="31" customFormat="1" ht="63.75">
       <c r="A196" s="11" t="s">
         <v>1518</v>
       </c>
@@ -48963,12 +48963,12 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="18" style="3" customWidth="1"/>
-    <col min="2" max="5" width="48.44140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="3"/>
+    <col min="2" max="5" width="48.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -49002,7 +49002,7 @@
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:6" ht="27.6">
+    <row r="5" spans="1:6" ht="25.5">
       <c r="A5" s="20" t="s">
         <v>4</v>
       </c>
@@ -49045,7 +49045,7 @@
       <c r="E7" s="63" t="s">
         <v>1526</v>
       </c>
-      <c r="F7" s="485" t="s">
+      <c r="F7" s="482" t="s">
         <v>769</v>
       </c>
     </row>
@@ -49061,7 +49061,7 @@
       <c r="E8" s="63" t="s">
         <v>1529</v>
       </c>
-      <c r="F8" s="485"/>
+      <c r="F8" s="482"/>
     </row>
     <row r="9" spans="1:6" ht="90.75" customHeight="1">
       <c r="A9" s="2" t="s">
@@ -49075,7 +49075,7 @@
       <c r="E9" s="97" t="s">
         <v>1532</v>
       </c>
-      <c r="F9" s="485"/>
+      <c r="F9" s="482"/>
     </row>
     <row r="10" spans="1:6" ht="90.75" customHeight="1">
       <c r="A10" s="2" t="s">
@@ -49089,7 +49089,7 @@
       <c r="E10" s="97" t="s">
         <v>1535</v>
       </c>
-      <c r="F10" s="485"/>
+      <c r="F10" s="482"/>
     </row>
     <row r="11" spans="1:6" ht="90.75" customHeight="1">
       <c r="A11" s="2" t="s">
@@ -49103,7 +49103,7 @@
       <c r="E11" s="24" t="s">
         <v>1538</v>
       </c>
-      <c r="F11" s="485"/>
+      <c r="F11" s="482"/>
     </row>
     <row r="12" spans="1:6" ht="90.75" customHeight="1">
       <c r="A12" s="2" t="s">
@@ -49117,7 +49117,7 @@
       <c r="E12" s="63" t="s">
         <v>1541</v>
       </c>
-      <c r="F12" s="485"/>
+      <c r="F12" s="482"/>
     </row>
     <row r="13" spans="1:6" ht="90.75" customHeight="1">
       <c r="A13" s="2" t="s">
@@ -49131,7 +49131,7 @@
       <c r="E13" s="136" t="s">
         <v>1544</v>
       </c>
-      <c r="F13" s="485"/>
+      <c r="F13" s="482"/>
     </row>
     <row r="14" spans="1:6" ht="90.75" customHeight="1">
       <c r="A14" s="2" t="s">
@@ -49145,7 +49145,7 @@
       <c r="E14" s="136" t="s">
         <v>1547</v>
       </c>
-      <c r="F14" s="485"/>
+      <c r="F14" s="482"/>
     </row>
     <row r="15" spans="1:6" ht="90.75" customHeight="1">
       <c r="A15" s="2" t="s">
@@ -49159,7 +49159,7 @@
       <c r="E15" s="23" t="s">
         <v>1538</v>
       </c>
-      <c r="F15" s="485"/>
+      <c r="F15" s="482"/>
     </row>
     <row r="16" spans="1:6" ht="90.75" customHeight="1">
       <c r="A16" s="2" t="s">
@@ -49175,7 +49175,7 @@
       <c r="E16" s="97" t="s">
         <v>1553</v>
       </c>
-      <c r="F16" s="485"/>
+      <c r="F16" s="482"/>
     </row>
     <row r="17" spans="1:6" ht="90.75" customHeight="1">
       <c r="A17" s="2" t="s">
@@ -49191,7 +49191,7 @@
       <c r="E17" s="97" t="s">
         <v>1557</v>
       </c>
-      <c r="F17" s="485"/>
+      <c r="F17" s="482"/>
     </row>
     <row r="18" spans="1:6" ht="90.75" customHeight="1">
       <c r="A18" s="2" t="s">
@@ -49207,7 +49207,7 @@
       <c r="E18" s="97" t="s">
         <v>1560</v>
       </c>
-      <c r="F18" s="485"/>
+      <c r="F18" s="482"/>
     </row>
     <row r="19" spans="1:6" ht="90.75" customHeight="1">
       <c r="A19" s="2" t="s">
@@ -49223,7 +49223,7 @@
       <c r="E19" s="86" t="s">
         <v>1562</v>
       </c>
-      <c r="F19" s="485"/>
+      <c r="F19" s="482"/>
     </row>
     <row r="20" spans="1:6" ht="90.75" customHeight="1">
       <c r="A20" s="2" t="s">
@@ -49239,7 +49239,7 @@
       <c r="E20" s="136" t="s">
         <v>1566</v>
       </c>
-      <c r="F20" s="485"/>
+      <c r="F20" s="482"/>
     </row>
     <row r="21" spans="1:6" ht="90.75" customHeight="1">
       <c r="A21" s="2" t="s">
@@ -49255,7 +49255,7 @@
       <c r="E21" s="96" t="s">
         <v>1569</v>
       </c>
-      <c r="F21" s="485"/>
+      <c r="F21" s="482"/>
     </row>
     <row r="22" spans="1:6" ht="90.75" customHeight="1">
       <c r="A22" s="2" t="s">
@@ -49269,7 +49269,7 @@
       <c r="E22" s="63" t="s">
         <v>1572</v>
       </c>
-      <c r="F22" s="485"/>
+      <c r="F22" s="482"/>
     </row>
     <row r="23" spans="1:6" ht="90.75" customHeight="1">
       <c r="A23" s="2" t="s">
@@ -49285,53 +49285,53 @@
       <c r="E23" s="86" t="s">
         <v>1576</v>
       </c>
-      <c r="F23" s="485"/>
+      <c r="F23" s="482"/>
     </row>
     <row r="24" spans="1:6" ht="90.75" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>1577</v>
       </c>
-      <c r="B24" s="486" t="s">
+      <c r="B24" s="483" t="s">
         <v>1574</v>
       </c>
       <c r="C24" s="147" t="s">
         <v>1578</v>
       </c>
       <c r="D24" s="148"/>
-      <c r="E24" s="489" t="s">
+      <c r="E24" s="486" t="s">
         <v>1579</v>
       </c>
-      <c r="F24" s="485"/>
+      <c r="F24" s="482"/>
     </row>
     <row r="25" spans="1:6" ht="90.75" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>1580</v>
       </c>
-      <c r="B25" s="487"/>
+      <c r="B25" s="484"/>
       <c r="C25" s="58" t="s">
         <v>1581</v>
       </c>
       <c r="D25" s="57"/>
-      <c r="E25" s="490"/>
-      <c r="F25" s="485"/>
+      <c r="E25" s="487"/>
+      <c r="F25" s="482"/>
     </row>
     <row r="26" spans="1:6" ht="90.75" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>1582</v>
       </c>
-      <c r="B26" s="488"/>
+      <c r="B26" s="485"/>
       <c r="C26" s="58" t="s">
         <v>1583</v>
       </c>
       <c r="D26" s="57"/>
-      <c r="E26" s="491"/>
-      <c r="F26" s="485"/>
+      <c r="E26" s="488"/>
+      <c r="F26" s="482"/>
     </row>
     <row r="27" spans="1:6" ht="90.75" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>1584</v>
       </c>
-      <c r="B27" s="486" t="s">
+      <c r="B27" s="483" t="s">
         <v>1585</v>
       </c>
       <c r="C27" s="149" t="s">
@@ -49343,13 +49343,13 @@
       <c r="E27" s="332" t="s">
         <v>1587</v>
       </c>
-      <c r="F27" s="485"/>
+      <c r="F27" s="482"/>
     </row>
     <row r="28" spans="1:6" ht="90.75" customHeight="1">
       <c r="A28" s="2" t="s">
         <v>1588</v>
       </c>
-      <c r="B28" s="487"/>
+      <c r="B28" s="484"/>
       <c r="C28" s="33" t="s">
         <v>1589</v>
       </c>
@@ -49357,19 +49357,19 @@
         <v>1590</v>
       </c>
       <c r="E28" s="333"/>
-      <c r="F28" s="485"/>
+      <c r="F28" s="482"/>
     </row>
     <row r="29" spans="1:6" ht="90.75" customHeight="1">
       <c r="A29" s="2" t="s">
         <v>1591</v>
       </c>
-      <c r="B29" s="488"/>
+      <c r="B29" s="485"/>
       <c r="C29" s="33" t="s">
         <v>954</v>
       </c>
       <c r="D29" s="33"/>
       <c r="E29" s="334"/>
-      <c r="F29" s="485"/>
+      <c r="F29" s="482"/>
     </row>
     <row r="30" spans="1:6" ht="90.75" customHeight="1">
       <c r="A30" s="2" t="s">
@@ -49385,13 +49385,13 @@
       <c r="E30" s="86" t="s">
         <v>1594</v>
       </c>
-      <c r="F30" s="485"/>
+      <c r="F30" s="482"/>
     </row>
     <row r="31" spans="1:6" ht="90.75" customHeight="1">
       <c r="A31" s="2" t="s">
         <v>1595</v>
       </c>
-      <c r="B31" s="482" t="s">
+      <c r="B31" s="489" t="s">
         <v>1593</v>
       </c>
       <c r="C31" s="149" t="s">
@@ -49401,37 +49401,37 @@
       <c r="E31" s="332" t="s">
         <v>1597</v>
       </c>
-      <c r="F31" s="485"/>
+      <c r="F31" s="482"/>
     </row>
     <row r="32" spans="1:6" ht="90.75" customHeight="1">
       <c r="A32" s="2" t="s">
         <v>1598</v>
       </c>
-      <c r="B32" s="483"/>
+      <c r="B32" s="490"/>
       <c r="C32" s="33" t="s">
         <v>1581</v>
       </c>
       <c r="D32" s="33"/>
       <c r="E32" s="333"/>
-      <c r="F32" s="485"/>
+      <c r="F32" s="482"/>
     </row>
     <row r="33" spans="1:6" ht="90.75" customHeight="1">
       <c r="A33" s="2" t="s">
         <v>1599</v>
       </c>
-      <c r="B33" s="484"/>
+      <c r="B33" s="491"/>
       <c r="C33" s="33" t="s">
         <v>1600</v>
       </c>
       <c r="D33" s="33"/>
       <c r="E33" s="334"/>
-      <c r="F33" s="485"/>
+      <c r="F33" s="482"/>
     </row>
     <row r="34" spans="1:6" ht="90.75" customHeight="1">
       <c r="A34" s="2" t="s">
         <v>1601</v>
       </c>
-      <c r="B34" s="486" t="s">
+      <c r="B34" s="483" t="s">
         <v>1593</v>
       </c>
       <c r="C34" s="149" t="s">
@@ -49443,13 +49443,13 @@
       <c r="E34" s="332" t="s">
         <v>1602</v>
       </c>
-      <c r="F34" s="485"/>
+      <c r="F34" s="482"/>
     </row>
     <row r="35" spans="1:6" ht="90.75" customHeight="1">
       <c r="A35" s="2" t="s">
         <v>1603</v>
       </c>
-      <c r="B35" s="487"/>
+      <c r="B35" s="484"/>
       <c r="C35" s="33" t="s">
         <v>1604</v>
       </c>
@@ -49457,19 +49457,19 @@
         <v>1605</v>
       </c>
       <c r="E35" s="333"/>
-      <c r="F35" s="485"/>
+      <c r="F35" s="482"/>
     </row>
     <row r="36" spans="1:6" ht="90.75" customHeight="1">
       <c r="A36" s="2" t="s">
         <v>1606</v>
       </c>
-      <c r="B36" s="488"/>
+      <c r="B36" s="485"/>
       <c r="C36" s="33" t="s">
         <v>954</v>
       </c>
       <c r="D36" s="33"/>
       <c r="E36" s="334"/>
-      <c r="F36" s="485"/>
+      <c r="F36" s="482"/>
     </row>
     <row r="37" spans="1:6" ht="90.75" customHeight="1">
       <c r="A37" s="2" t="s">
@@ -49485,13 +49485,13 @@
       <c r="E37" s="86" t="s">
         <v>1609</v>
       </c>
-      <c r="F37" s="485"/>
+      <c r="F37" s="482"/>
     </row>
     <row r="38" spans="1:6" ht="90.75" customHeight="1">
       <c r="A38" s="2" t="s">
         <v>1610</v>
       </c>
-      <c r="B38" s="482" t="s">
+      <c r="B38" s="489" t="s">
         <v>1608</v>
       </c>
       <c r="C38" s="149" t="s">
@@ -49503,37 +49503,37 @@
       <c r="E38" s="332" t="s">
         <v>1611</v>
       </c>
-      <c r="F38" s="485"/>
+      <c r="F38" s="482"/>
     </row>
     <row r="39" spans="1:6" ht="90.75" customHeight="1">
       <c r="A39" s="2" t="s">
         <v>1612</v>
       </c>
-      <c r="B39" s="483"/>
+      <c r="B39" s="490"/>
       <c r="C39" s="149" t="s">
         <v>1613</v>
       </c>
       <c r="D39" s="33"/>
       <c r="E39" s="333"/>
-      <c r="F39" s="485"/>
+      <c r="F39" s="482"/>
     </row>
     <row r="40" spans="1:6" ht="54" customHeight="1">
       <c r="A40" s="2" t="s">
         <v>1614</v>
       </c>
-      <c r="B40" s="484"/>
+      <c r="B40" s="491"/>
       <c r="C40" s="33" t="s">
         <v>1583</v>
       </c>
       <c r="D40" s="33"/>
       <c r="E40" s="334"/>
-      <c r="F40" s="485"/>
+      <c r="F40" s="482"/>
     </row>
     <row r="41" spans="1:6" ht="90.75" customHeight="1">
       <c r="A41" s="2" t="s">
         <v>1615</v>
       </c>
-      <c r="B41" s="482" t="s">
+      <c r="B41" s="489" t="s">
         <v>1608</v>
       </c>
       <c r="C41" s="33" t="s">
@@ -49545,13 +49545,13 @@
       <c r="E41" s="332" t="s">
         <v>1617</v>
       </c>
-      <c r="F41" s="485"/>
+      <c r="F41" s="482"/>
     </row>
     <row r="42" spans="1:6" ht="90.75" customHeight="1">
       <c r="A42" s="2" t="s">
         <v>1618</v>
       </c>
-      <c r="B42" s="483"/>
+      <c r="B42" s="490"/>
       <c r="C42" s="33" t="s">
         <v>1619</v>
       </c>
@@ -49559,19 +49559,19 @@
         <v>1605</v>
       </c>
       <c r="E42" s="333"/>
-      <c r="F42" s="485"/>
+      <c r="F42" s="482"/>
     </row>
     <row r="43" spans="1:6" ht="49.5" customHeight="1">
       <c r="A43" s="2" t="s">
         <v>1620</v>
       </c>
-      <c r="B43" s="484"/>
+      <c r="B43" s="491"/>
       <c r="C43" s="33" t="s">
         <v>1621</v>
       </c>
       <c r="D43" s="33"/>
       <c r="E43" s="334"/>
-      <c r="F43" s="485"/>
+      <c r="F43" s="482"/>
     </row>
     <row r="44" spans="1:6" ht="90.75" customHeight="1">
       <c r="A44" s="2" t="s">
@@ -49587,13 +49587,13 @@
       <c r="E44" s="86" t="s">
         <v>1624</v>
       </c>
-      <c r="F44" s="485"/>
+      <c r="F44" s="482"/>
     </row>
     <row r="45" spans="1:6" ht="42" customHeight="1">
       <c r="A45" s="2" t="s">
         <v>1625</v>
       </c>
-      <c r="B45" s="482" t="s">
+      <c r="B45" s="489" t="s">
         <v>1626</v>
       </c>
       <c r="C45" s="149" t="s">
@@ -49605,37 +49605,37 @@
       <c r="E45" s="332" t="s">
         <v>1628</v>
       </c>
-      <c r="F45" s="485"/>
+      <c r="F45" s="482"/>
     </row>
     <row r="46" spans="1:6" ht="42" customHeight="1">
       <c r="A46" s="2" t="s">
         <v>1629</v>
       </c>
-      <c r="B46" s="483"/>
+      <c r="B46" s="490"/>
       <c r="C46" s="33" t="s">
         <v>731</v>
       </c>
       <c r="D46" s="33"/>
       <c r="E46" s="333"/>
-      <c r="F46" s="485"/>
+      <c r="F46" s="482"/>
     </row>
     <row r="47" spans="1:6" ht="52.5" customHeight="1">
       <c r="A47" s="2" t="s">
         <v>1630</v>
       </c>
-      <c r="B47" s="484"/>
+      <c r="B47" s="491"/>
       <c r="C47" s="33" t="s">
         <v>1583</v>
       </c>
       <c r="D47" s="33"/>
       <c r="E47" s="334"/>
-      <c r="F47" s="485"/>
+      <c r="F47" s="482"/>
     </row>
     <row r="48" spans="1:6" ht="90.75" customHeight="1">
       <c r="A48" s="2" t="s">
         <v>1631</v>
       </c>
-      <c r="B48" s="482" t="s">
+      <c r="B48" s="489" t="s">
         <v>1626</v>
       </c>
       <c r="C48" s="149" t="s">
@@ -49647,25 +49647,25 @@
       <c r="E48" s="332" t="s">
         <v>1632</v>
       </c>
-      <c r="F48" s="485"/>
+      <c r="F48" s="482"/>
     </row>
     <row r="49" spans="1:6" ht="90.75" customHeight="1">
       <c r="A49" s="2" t="s">
         <v>1633</v>
       </c>
-      <c r="B49" s="483"/>
+      <c r="B49" s="490"/>
       <c r="C49" s="33" t="s">
         <v>954</v>
       </c>
       <c r="D49" s="33"/>
       <c r="E49" s="333"/>
-      <c r="F49" s="485"/>
+      <c r="F49" s="482"/>
     </row>
     <row r="50" spans="1:6" ht="69" customHeight="1">
       <c r="A50" s="2" t="s">
         <v>1634</v>
       </c>
-      <c r="B50" s="484"/>
+      <c r="B50" s="491"/>
       <c r="C50" s="33" t="s">
         <v>1619</v>
       </c>
@@ -49673,7 +49673,7 @@
         <v>1605</v>
       </c>
       <c r="E50" s="334"/>
-      <c r="F50" s="485"/>
+      <c r="F50" s="482"/>
     </row>
     <row r="51" spans="1:6" ht="90.75" customHeight="1">
       <c r="A51" s="2" t="s">
@@ -49689,7 +49689,7 @@
       <c r="E51" s="136" t="s">
         <v>1637</v>
       </c>
-      <c r="F51" s="485"/>
+      <c r="F51" s="482"/>
     </row>
     <row r="52" spans="1:6" ht="90.75" customHeight="1">
       <c r="A52" s="2" t="s">
@@ -49705,7 +49705,7 @@
       <c r="E52" s="136" t="s">
         <v>1639</v>
       </c>
-      <c r="F52" s="485"/>
+      <c r="F52" s="482"/>
     </row>
     <row r="53" spans="1:6" ht="90.75" customHeight="1">
       <c r="A53" s="2" t="s">
@@ -49721,7 +49721,7 @@
       <c r="E53" s="136" t="s">
         <v>1642</v>
       </c>
-      <c r="F53" s="485"/>
+      <c r="F53" s="482"/>
     </row>
     <row r="54" spans="1:6" ht="90.75" customHeight="1">
       <c r="A54" s="2" t="s">
@@ -49737,7 +49737,7 @@
       <c r="E54" s="151" t="s">
         <v>1645</v>
       </c>
-      <c r="F54" s="485"/>
+      <c r="F54" s="482"/>
     </row>
     <row r="55" spans="1:6" ht="90.75" customHeight="1">
       <c r="A55" s="2" t="s">
@@ -49751,7 +49751,7 @@
       <c r="E55" s="136" t="s">
         <v>1648</v>
       </c>
-      <c r="F55" s="485"/>
+      <c r="F55" s="482"/>
     </row>
     <row r="56" spans="1:6" ht="90.75" customHeight="1">
       <c r="A56" s="2" t="s">
@@ -49767,7 +49767,7 @@
       <c r="E56" s="86" t="s">
         <v>1651</v>
       </c>
-      <c r="F56" s="485"/>
+      <c r="F56" s="482"/>
     </row>
     <row r="57" spans="1:6" ht="90.75" customHeight="1">
       <c r="A57" s="2" t="s">
@@ -49783,7 +49783,7 @@
       <c r="E57" s="99" t="s">
         <v>1655</v>
       </c>
-      <c r="F57" s="485"/>
+      <c r="F57" s="482"/>
     </row>
     <row r="58" spans="1:6" ht="90.75" customHeight="1">
       <c r="A58" s="2" t="s">
@@ -49797,7 +49797,7 @@
       <c r="E58" s="86" t="s">
         <v>1658</v>
       </c>
-      <c r="F58" s="485"/>
+      <c r="F58" s="482"/>
     </row>
     <row r="59" spans="1:6" ht="90.75" customHeight="1">
       <c r="A59" s="2" t="s">
@@ -49811,7 +49811,7 @@
       <c r="E59" s="86" t="s">
         <v>1661</v>
       </c>
-      <c r="F59" s="485"/>
+      <c r="F59" s="482"/>
     </row>
     <row r="60" spans="1:6" ht="90.75" customHeight="1">
       <c r="A60" s="2" t="s">
@@ -49825,7 +49825,7 @@
       <c r="E60" s="86" t="s">
         <v>1511</v>
       </c>
-      <c r="F60" s="485"/>
+      <c r="F60" s="482"/>
     </row>
     <row r="61" spans="1:6" ht="90.75" customHeight="1">
       <c r="A61" s="2" t="s">
@@ -49839,7 +49839,7 @@
       <c r="E61" s="86" t="s">
         <v>1666</v>
       </c>
-      <c r="F61" s="485"/>
+      <c r="F61" s="482"/>
     </row>
     <row r="62" spans="1:6" ht="90.75" customHeight="1">
       <c r="A62" s="2" t="s">
@@ -49853,7 +49853,7 @@
       <c r="E62" s="86" t="s">
         <v>1669</v>
       </c>
-      <c r="F62" s="485"/>
+      <c r="F62" s="482"/>
     </row>
     <row r="63" spans="1:6" ht="90.75" customHeight="1">
       <c r="A63" s="2" t="s">
@@ -49867,7 +49867,7 @@
       <c r="E63" s="67" t="s">
         <v>1672</v>
       </c>
-      <c r="F63" s="485"/>
+      <c r="F63" s="482"/>
     </row>
     <row r="64" spans="1:6">
       <c r="C64" s="5"/>
@@ -50232,10 +50232,6 @@
   </sheetData>
   <autoFilter ref="A6:E63" xr:uid="{5F0EC5CA-DC51-46A8-9DDB-57E6809D24F1}"/>
   <mergeCells count="17">
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="E41:E43"/>
-    <mergeCell ref="B38:B40"/>
     <mergeCell ref="E38:E40"/>
     <mergeCell ref="F7:F63"/>
     <mergeCell ref="B24:B26"/>
@@ -50249,6 +50245,10 @@
     <mergeCell ref="E48:E50"/>
     <mergeCell ref="B48:B50"/>
     <mergeCell ref="E45:E47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="B38:B40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
